--- a/Monitoreo_de_candidatos_largo.xlsx
+++ b/Monitoreo_de_candidatos_largo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://controlriskscan-my.sharepoint.com/personal/angelica_mendez_controlrisks_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1273" documentId="8_{194206F6-F826-48E6-9C50-0079A5A6D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0E501EC-0FB4-4804-801E-3BB80884BCE1}"/>
+  <xr:revisionPtr revIDLastSave="1585" documentId="8_{194206F6-F826-48E6-9C50-0079A5A6D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAF92398-9A68-48DB-8CBA-25F78604AFD0}"/>
   <bookViews>
-    <workbookView xWindow="2330" yWindow="2040" windowWidth="14400" windowHeight="8210" firstSheet="1" activeTab="9" xr2:uid="{3D252F8C-4335-4931-923B-6975DF4F4743}"/>
+    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="15700" firstSheet="1" activeTab="8" xr2:uid="{3D252F8C-4335-4931-923B-6975DF4F4743}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 1" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,11 @@
     <sheet name="Semana 6" sheetId="6" r:id="rId6"/>
     <sheet name="Semana 7" sheetId="7" r:id="rId7"/>
     <sheet name="Semana 8" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId9"/>
+    <sheet name="Semana 9" sheetId="10" r:id="rId9"/>
     <sheet name="Promedios totales candidato" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Promedios totales candidato'!$B$1:$I$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Promedios totales candidato'!$B$1:$I$373</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Semana 1'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Semana 8'!$A$1:$I$42</definedName>
   </definedNames>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3537" uniqueCount="316">
   <si>
     <t>Espectro</t>
   </si>
@@ -905,6 +905,99 @@
   </si>
   <si>
     <t>Semana 8</t>
+  </si>
+  <si>
+    <t>Nov05-Nov12</t>
+  </si>
+  <si>
+    <t>Publicación en contra de Trump</t>
+  </si>
+  <si>
+    <t>Publicación en el eje cafetero</t>
+  </si>
+  <si>
+    <t>Publicación de campaña de carácter conciliador</t>
+  </si>
+  <si>
+    <t>Publicación de campaña sobre seguridad</t>
+  </si>
+  <si>
+    <t>Publicación de campaña con Juan Manuel Galán</t>
+  </si>
+  <si>
+    <t>Publicación en contra de Gaviria</t>
+  </si>
+  <si>
+    <t>Publicación de campaña en torno a la seguridad</t>
+  </si>
+  <si>
+    <t>Publicación de campaña respecto a las luchas sociales</t>
+  </si>
+  <si>
+    <t>Pregunta en contra de acusación por caso del banco del estado</t>
+  </si>
+  <si>
+    <t>Publicación en contra de Fico Gutierrez</t>
+  </si>
+  <si>
+    <t>Publicación de campaña a favor del Pacto Histórico</t>
+  </si>
+  <si>
+    <t>Publicación sobre el nuevo albúm de Rosalia</t>
+  </si>
+  <si>
+    <t>Publicación sobre su propuesta de seguridad</t>
+  </si>
+  <si>
+    <t>Publicación sobre su familia</t>
+  </si>
+  <si>
+    <t>Publicación de campaña en Armenia</t>
+  </si>
+  <si>
+    <t>Publicación donde intenta fortalecer al centro</t>
+  </si>
+  <si>
+    <t>Publicación a favor de las fuerzas armadas</t>
+  </si>
+  <si>
+    <t>Publicación de campaña sobre su hijo</t>
+  </si>
+  <si>
+    <t>Publicación en contra de Abelardo de la Espriella</t>
+  </si>
+  <si>
+    <t>Publicación de campaña invitando a votar</t>
+  </si>
+  <si>
+    <t>Publicación en contra de Petro por lo del Tren de Cercanías</t>
+  </si>
+  <si>
+    <t>Publicación en contra del gobierno por el impuesto a billeteras digitales</t>
+  </si>
+  <si>
+    <t>Retweet de Hilary Clinton sobre la elección del alcalde de NY</t>
+  </si>
+  <si>
+    <t>Publicación en contra de Petro por lo del Palacio de Justicia</t>
+  </si>
+  <si>
+    <t>Publicación sobre la muerte de Miguel Uribe y en contra de Maduro</t>
+  </si>
+  <si>
+    <t>Publicación en contra de Petro por el caso de Juliana Guerrero</t>
+  </si>
+  <si>
+    <t>Publicación en contra de Miguel Polo Polo y Abelardo de la Espriella</t>
+  </si>
+  <si>
+    <t>Publicación invitando a una unión con la UE y con España</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 9 </t>
+  </si>
+  <si>
+    <t>Semana 9</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1209,8 +1302,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1547,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6C6FB0-1451-4C8C-8CCD-E3D3242616A7}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2497,10 +2591,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6FA629-4877-42B1-A680-1262F55C3057}">
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:I373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="P297" sqref="P297"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3717,7 +3811,7 @@
         <v>25</v>
       </c>
       <c r="F42" s="5">
-        <v>1260.6999999999998</v>
+        <v>1260.7</v>
       </c>
       <c r="G42" s="41">
         <v>2836.15</v>
@@ -12098,8 +12192,1066 @@
         <v>0</v>
       </c>
     </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>314</v>
+      </c>
+      <c r="B332" t="s">
+        <v>285</v>
+      </c>
+      <c r="C332" t="s">
+        <v>21</v>
+      </c>
+      <c r="D332" t="s">
+        <v>7</v>
+      </c>
+      <c r="E332" t="s">
+        <v>24</v>
+      </c>
+      <c r="F332">
+        <v>755.2</v>
+      </c>
+      <c r="G332">
+        <v>1414.7722222222224</v>
+      </c>
+      <c r="H332">
+        <v>463.16666666666669</v>
+      </c>
+      <c r="I332">
+        <v>39.800000000000004</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>314</v>
+      </c>
+      <c r="B333" t="s">
+        <v>285</v>
+      </c>
+      <c r="C333" t="s">
+        <v>21</v>
+      </c>
+      <c r="D333" t="s">
+        <v>7</v>
+      </c>
+      <c r="E333" t="s">
+        <v>25</v>
+      </c>
+      <c r="F333">
+        <v>389.7</v>
+      </c>
+      <c r="G333">
+        <v>1824.1722222222222</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>314</v>
+      </c>
+      <c r="B334" t="s">
+        <v>285</v>
+      </c>
+      <c r="C334" t="s">
+        <v>21</v>
+      </c>
+      <c r="D334" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334" t="s">
+        <v>26</v>
+      </c>
+      <c r="F334">
+        <v>364</v>
+      </c>
+      <c r="G334">
+        <v>637.59999999999991</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>314</v>
+      </c>
+      <c r="B335" t="s">
+        <v>285</v>
+      </c>
+      <c r="C335" t="s">
+        <v>21</v>
+      </c>
+      <c r="D335" t="s">
+        <v>8</v>
+      </c>
+      <c r="E335" t="s">
+        <v>24</v>
+      </c>
+      <c r="F335">
+        <v>2062.1999999999998</v>
+      </c>
+      <c r="G335">
+        <v>2292.0722222222225</v>
+      </c>
+      <c r="H335">
+        <v>2995.5</v>
+      </c>
+      <c r="I335">
+        <v>184.43333333333331</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>315</v>
+      </c>
+      <c r="B336" t="s">
+        <v>285</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F336">
+        <v>3933.7999999999997</v>
+      </c>
+      <c r="G336">
+        <v>1698.4277777777779</v>
+      </c>
+      <c r="H336" s="1"/>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>315</v>
+      </c>
+      <c r="B337" t="s">
+        <v>285</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F337">
+        <v>3543.8</v>
+      </c>
+      <c r="G337">
+        <v>2108.7222222222222</v>
+      </c>
+      <c r="H337" s="1"/>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>315</v>
+      </c>
+      <c r="B338" t="s">
+        <v>285</v>
+      </c>
+      <c r="C338" t="s">
+        <v>21</v>
+      </c>
+      <c r="D338" t="s">
+        <v>9</v>
+      </c>
+      <c r="E338" t="s">
+        <v>24</v>
+      </c>
+      <c r="F338">
+        <v>303.8</v>
+      </c>
+      <c r="G338">
+        <v>922.08333333333337</v>
+      </c>
+      <c r="H338">
+        <v>264.05</v>
+      </c>
+      <c r="I338">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>315</v>
+      </c>
+      <c r="B339" t="s">
+        <v>285</v>
+      </c>
+      <c r="C339" t="s">
+        <v>21</v>
+      </c>
+      <c r="D339" t="s">
+        <v>9</v>
+      </c>
+      <c r="E339" t="s">
+        <v>25</v>
+      </c>
+      <c r="F339">
+        <v>245.8</v>
+      </c>
+      <c r="G339">
+        <v>286.85555555555561</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>315</v>
+      </c>
+      <c r="B340" t="s">
+        <v>285</v>
+      </c>
+      <c r="C340" t="s">
+        <v>21</v>
+      </c>
+      <c r="D340" t="s">
+        <v>9</v>
+      </c>
+      <c r="E340" t="s">
+        <v>26</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>335.63333333333333</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>315</v>
+      </c>
+      <c r="B341" t="s">
+        <v>285</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F341">
+        <v>3893</v>
+      </c>
+      <c r="G341">
+        <v>3597.2111111111112</v>
+      </c>
+      <c r="H341" s="1">
+        <v>1853.3333333333333</v>
+      </c>
+      <c r="I341">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>315</v>
+      </c>
+      <c r="B342" t="s">
+        <v>285</v>
+      </c>
+      <c r="C342" t="s">
+        <v>21</v>
+      </c>
+      <c r="D342" t="s">
+        <v>10</v>
+      </c>
+      <c r="E342" t="s">
+        <v>25</v>
+      </c>
+      <c r="F342">
+        <v>1505.5</v>
+      </c>
+      <c r="G342">
+        <v>521.66666666666663</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>315</v>
+      </c>
+      <c r="B343" t="s">
+        <v>285</v>
+      </c>
+      <c r="C343" t="s">
+        <v>21</v>
+      </c>
+      <c r="D343" t="s">
+        <v>10</v>
+      </c>
+      <c r="E343" t="s">
+        <v>26</v>
+      </c>
+      <c r="F343">
+        <v>382.59999999999997</v>
+      </c>
+      <c r="G343">
+        <v>827.14444444444462</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>315</v>
+      </c>
+      <c r="B344" t="s">
+        <v>285</v>
+      </c>
+      <c r="C344" t="s">
+        <v>21</v>
+      </c>
+      <c r="D344" t="s">
+        <v>11</v>
+      </c>
+      <c r="E344" t="s">
+        <v>24</v>
+      </c>
+      <c r="F344">
+        <v>975.4</v>
+      </c>
+      <c r="G344">
+        <v>1083.3777777777777</v>
+      </c>
+      <c r="H344">
+        <v>815.66666666666663</v>
+      </c>
+      <c r="I344">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>315</v>
+      </c>
+      <c r="B345" t="s">
+        <v>285</v>
+      </c>
+      <c r="C345" t="s">
+        <v>21</v>
+      </c>
+      <c r="D345" t="s">
+        <v>11</v>
+      </c>
+      <c r="E345" t="s">
+        <v>25</v>
+      </c>
+      <c r="F345">
+        <v>628.5</v>
+      </c>
+      <c r="G345">
+        <v>407.51666666666665</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>315</v>
+      </c>
+      <c r="B346" t="s">
+        <v>285</v>
+      </c>
+      <c r="C346" t="s">
+        <v>21</v>
+      </c>
+      <c r="D346" t="s">
+        <v>11</v>
+      </c>
+      <c r="E346" t="s">
+        <v>26</v>
+      </c>
+      <c r="F346">
+        <v>1122.0999999999999</v>
+      </c>
+      <c r="G346">
+        <v>1084.288888888889</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>315</v>
+      </c>
+      <c r="B347" t="s">
+        <v>285</v>
+      </c>
+      <c r="C347" t="s">
+        <v>21</v>
+      </c>
+      <c r="D347" t="s">
+        <v>12</v>
+      </c>
+      <c r="E347" t="s">
+        <v>24</v>
+      </c>
+      <c r="F347">
+        <v>930.1</v>
+      </c>
+      <c r="G347">
+        <v>1808.5222222222221</v>
+      </c>
+      <c r="H347">
+        <v>356.93333333333339</v>
+      </c>
+      <c r="I347">
+        <v>53.766666666666673</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>315</v>
+      </c>
+      <c r="B348" t="s">
+        <v>285</v>
+      </c>
+      <c r="C348" t="s">
+        <v>21</v>
+      </c>
+      <c r="D348" t="s">
+        <v>12</v>
+      </c>
+      <c r="E348" t="s">
+        <v>25</v>
+      </c>
+      <c r="F348">
+        <v>74.3</v>
+      </c>
+      <c r="G348">
+        <v>641.75555555555559</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>315</v>
+      </c>
+      <c r="B349" t="s">
+        <v>285</v>
+      </c>
+      <c r="C349" t="s">
+        <v>21</v>
+      </c>
+      <c r="D349" t="s">
+        <v>12</v>
+      </c>
+      <c r="E349" t="s">
+        <v>26</v>
+      </c>
+      <c r="F349">
+        <v>227.7</v>
+      </c>
+      <c r="G349">
+        <v>583.86666666666656</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>315</v>
+      </c>
+      <c r="B350" t="s">
+        <v>285</v>
+      </c>
+      <c r="C350" t="s">
+        <v>21</v>
+      </c>
+      <c r="D350" t="s">
+        <v>219</v>
+      </c>
+      <c r="E350" t="s">
+        <v>24</v>
+      </c>
+      <c r="F350">
+        <v>102.2</v>
+      </c>
+      <c r="G350">
+        <v>2836.8444444444449</v>
+      </c>
+      <c r="H350">
+        <v>82.63333333333334</v>
+      </c>
+      <c r="I350">
+        <v>20.933333333333334</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>315</v>
+      </c>
+      <c r="B351" t="s">
+        <v>285</v>
+      </c>
+      <c r="C351" t="s">
+        <v>21</v>
+      </c>
+      <c r="D351" t="s">
+        <v>219</v>
+      </c>
+      <c r="E351" t="s">
+        <v>25</v>
+      </c>
+      <c r="F351">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G351">
+        <v>967.93333333333351</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>315</v>
+      </c>
+      <c r="B352" t="s">
+        <v>285</v>
+      </c>
+      <c r="C352" t="s">
+        <v>21</v>
+      </c>
+      <c r="D352" t="s">
+        <v>219</v>
+      </c>
+      <c r="E352" t="s">
+        <v>26</v>
+      </c>
+      <c r="F352">
+        <v>136.9</v>
+      </c>
+      <c r="G352">
+        <v>2628.4666666666667</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>315</v>
+      </c>
+      <c r="B353" t="s">
+        <v>285</v>
+      </c>
+      <c r="C353" t="s">
+        <v>22</v>
+      </c>
+      <c r="D353" t="s">
+        <v>13</v>
+      </c>
+      <c r="E353" t="s">
+        <v>24</v>
+      </c>
+      <c r="F353">
+        <v>1235</v>
+      </c>
+      <c r="G353">
+        <v>4342.1888888888898</v>
+      </c>
+      <c r="H353">
+        <v>1323.5666666666666</v>
+      </c>
+      <c r="I353">
+        <v>107.63333333333333</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>315</v>
+      </c>
+      <c r="B354" t="s">
+        <v>285</v>
+      </c>
+      <c r="C354" t="s">
+        <v>22</v>
+      </c>
+      <c r="D354" t="s">
+        <v>13</v>
+      </c>
+      <c r="E354" t="s">
+        <v>25</v>
+      </c>
+      <c r="F354">
+        <v>498.6</v>
+      </c>
+      <c r="G354">
+        <v>475.94444444444446</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>315</v>
+      </c>
+      <c r="B355" t="s">
+        <v>285</v>
+      </c>
+      <c r="C355" t="s">
+        <v>22</v>
+      </c>
+      <c r="D355" t="s">
+        <v>13</v>
+      </c>
+      <c r="E355" t="s">
+        <v>26</v>
+      </c>
+      <c r="F355">
+        <v>2560</v>
+      </c>
+      <c r="G355">
+        <v>1333.6333333333334</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>315</v>
+      </c>
+      <c r="B356" t="s">
+        <v>285</v>
+      </c>
+      <c r="C356" t="s">
+        <v>22</v>
+      </c>
+      <c r="D356" t="s">
+        <v>14</v>
+      </c>
+      <c r="E356" t="s">
+        <v>24</v>
+      </c>
+      <c r="F356">
+        <v>1643.3000000000002</v>
+      </c>
+      <c r="G356">
+        <v>5003.1000000000004</v>
+      </c>
+      <c r="H356">
+        <v>1402.1333333333332</v>
+      </c>
+      <c r="I356">
+        <v>112.36666666666667</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>315</v>
+      </c>
+      <c r="B357" t="s">
+        <v>285</v>
+      </c>
+      <c r="C357" t="s">
+        <v>22</v>
+      </c>
+      <c r="D357" t="s">
+        <v>14</v>
+      </c>
+      <c r="E357" t="s">
+        <v>25</v>
+      </c>
+      <c r="F357">
+        <v>1767.1</v>
+      </c>
+      <c r="G357">
+        <v>2144.9166666666665</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>315</v>
+      </c>
+      <c r="B358" t="s">
+        <v>285</v>
+      </c>
+      <c r="C358" t="s">
+        <v>22</v>
+      </c>
+      <c r="D358" t="s">
+        <v>14</v>
+      </c>
+      <c r="E358" t="s">
+        <v>26</v>
+      </c>
+      <c r="F358">
+        <v>1133.0999999999999</v>
+      </c>
+      <c r="G358">
+        <v>1801.4555555555555</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>315</v>
+      </c>
+      <c r="B359" t="s">
+        <v>285</v>
+      </c>
+      <c r="C359" t="s">
+        <v>22</v>
+      </c>
+      <c r="D359" t="s">
+        <v>15</v>
+      </c>
+      <c r="E359" t="s">
+        <v>24</v>
+      </c>
+      <c r="F359">
+        <v>2275.8000000000002</v>
+      </c>
+      <c r="G359">
+        <v>24912.866666666665</v>
+      </c>
+      <c r="H359">
+        <v>1213.6000000000001</v>
+      </c>
+      <c r="I359">
+        <v>559.23333333333335</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>315</v>
+      </c>
+      <c r="B360" t="s">
+        <v>285</v>
+      </c>
+      <c r="C360" t="s">
+        <v>22</v>
+      </c>
+      <c r="D360" t="s">
+        <v>15</v>
+      </c>
+      <c r="E360" t="s">
+        <v>25</v>
+      </c>
+      <c r="F360">
+        <v>1638.5</v>
+      </c>
+      <c r="G360">
+        <v>10112.5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>315</v>
+      </c>
+      <c r="B361" t="s">
+        <v>285</v>
+      </c>
+      <c r="C361" t="s">
+        <v>22</v>
+      </c>
+      <c r="D361" t="s">
+        <v>15</v>
+      </c>
+      <c r="E361" t="s">
+        <v>26</v>
+      </c>
+      <c r="F361">
+        <v>1404.2</v>
+      </c>
+      <c r="G361">
+        <v>3425.3999999999996</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>315</v>
+      </c>
+      <c r="B362" t="s">
+        <v>285</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F362">
+        <v>20099.199999999997</v>
+      </c>
+      <c r="G362">
+        <v>9426.4666666666672</v>
+      </c>
+      <c r="H362" s="1">
+        <v>9456.8333333333339</v>
+      </c>
+      <c r="I362">
+        <v>523.36666666666667</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>315</v>
+      </c>
+      <c r="B363" t="s">
+        <v>285</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F363">
+        <v>6558.7</v>
+      </c>
+      <c r="G363">
+        <v>4465.6888888888889</v>
+      </c>
+      <c r="H363" s="1"/>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>315</v>
+      </c>
+      <c r="B364" t="s">
+        <v>285</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F364">
+        <v>3282.7</v>
+      </c>
+      <c r="G364">
+        <v>3412.1000000000004</v>
+      </c>
+      <c r="H364" s="1"/>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>315</v>
+      </c>
+      <c r="B365" t="s">
+        <v>285</v>
+      </c>
+      <c r="C365" t="s">
+        <v>23</v>
+      </c>
+      <c r="D365" t="s">
+        <v>18</v>
+      </c>
+      <c r="E365" t="s">
+        <v>24</v>
+      </c>
+      <c r="F365">
+        <v>2375.1</v>
+      </c>
+      <c r="G365">
+        <v>2846.5555555555557</v>
+      </c>
+      <c r="H365">
+        <v>2411.7000000000003</v>
+      </c>
+      <c r="I365">
+        <v>447.06666666666661</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>315</v>
+      </c>
+      <c r="B366" t="s">
+        <v>285</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F366">
+        <v>4590.3</v>
+      </c>
+      <c r="G366">
+        <v>6074.477777777779</v>
+      </c>
+      <c r="H366" s="1"/>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>315</v>
+      </c>
+      <c r="B367" t="s">
+        <v>285</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F367">
+        <v>1610.9</v>
+      </c>
+      <c r="G367">
+        <v>1936.4333333333334</v>
+      </c>
+      <c r="H367" s="1"/>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>315</v>
+      </c>
+      <c r="B368" t="s">
+        <v>285</v>
+      </c>
+      <c r="C368" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D368" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E368" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="F368">
+        <v>7010.4000000000005</v>
+      </c>
+      <c r="G368">
+        <v>5338.3555555555558</v>
+      </c>
+      <c r="H368" s="74">
+        <v>4843.2666666666664</v>
+      </c>
+      <c r="I368">
+        <v>284.90000000000003</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>315</v>
+      </c>
+      <c r="B369" t="s">
+        <v>285</v>
+      </c>
+      <c r="C369" t="s">
+        <v>23</v>
+      </c>
+      <c r="D369" t="s">
+        <v>19</v>
+      </c>
+      <c r="E369" t="s">
+        <v>25</v>
+      </c>
+      <c r="F369">
+        <v>3349.5</v>
+      </c>
+      <c r="G369">
+        <v>8774.9666666666672</v>
+      </c>
+      <c r="H369" s="1"/>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>315</v>
+      </c>
+      <c r="B370" t="s">
+        <v>285</v>
+      </c>
+      <c r="C370" t="s">
+        <v>23</v>
+      </c>
+      <c r="D370" t="s">
+        <v>19</v>
+      </c>
+      <c r="E370" t="s">
+        <v>26</v>
+      </c>
+      <c r="F370">
+        <v>5024.5999999999995</v>
+      </c>
+      <c r="G370">
+        <v>2951.8444444444449</v>
+      </c>
+      <c r="H370" s="1"/>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>315</v>
+      </c>
+      <c r="B371" t="s">
+        <v>285</v>
+      </c>
+      <c r="C371" t="s">
+        <v>217</v>
+      </c>
+      <c r="D371" t="s">
+        <v>218</v>
+      </c>
+      <c r="E371" t="s">
+        <v>24</v>
+      </c>
+      <c r="F371">
+        <v>1119.1000000000001</v>
+      </c>
+      <c r="G371">
+        <v>2298.6999999999998</v>
+      </c>
+      <c r="H371">
+        <v>630</v>
+      </c>
+      <c r="I371">
+        <v>63.166666666666664</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>315</v>
+      </c>
+      <c r="B372" t="s">
+        <v>285</v>
+      </c>
+      <c r="C372" t="s">
+        <v>217</v>
+      </c>
+      <c r="D372" t="s">
+        <v>218</v>
+      </c>
+      <c r="E372" t="s">
+        <v>25</v>
+      </c>
+      <c r="F372">
+        <v>167</v>
+      </c>
+      <c r="G372">
+        <v>2428.5444444444443</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>315</v>
+      </c>
+      <c r="B373" t="s">
+        <v>285</v>
+      </c>
+      <c r="C373" t="s">
+        <v>217</v>
+      </c>
+      <c r="D373" t="s">
+        <v>218</v>
+      </c>
+      <c r="E373" t="s">
+        <v>26</v>
+      </c>
+      <c r="F373">
+        <v>793.4</v>
+      </c>
+      <c r="G373">
+        <v>1570.8555555555554</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:I289" xr:uid="{3F6FA629-4877-42B1-A680-1262F55C3057}"/>
+  <autoFilter ref="B1:I373" xr:uid="{3F6FA629-4877-42B1-A680-1262F55C3057}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17958,8 +19110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A655A1-E6E1-43E0-A23B-CE9FD65986AA}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I43" sqref="A1:I43"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18058,7 +19210,7 @@
         <v>40.5</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I47" si="0">SUBTOTAL(9,E3,H3)</f>
+        <f t="shared" ref="I3:I43" si="0">SUBTOTAL(9,E3,H3)</f>
         <v>921.75</v>
       </c>
     </row>
@@ -19246,15 +20398,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F158CD29-099B-43CF-B265-D3A66306176E}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" customWidth="1"/>
+    <col min="8" max="8" width="33.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
@@ -19274,16 +20435,1266 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="I1" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
+      <c r="J1" s="75"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>708.1</v>
+      </c>
+      <c r="F2">
+        <v>1493</v>
+      </c>
+      <c r="G2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2">
+        <v>47.1</v>
+      </c>
+      <c r="I2">
+        <f>SUBTOTAL(9,E2,H2)</f>
+        <v>755.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>372.3</v>
+      </c>
+      <c r="F3">
+        <v>1147</v>
+      </c>
+      <c r="G3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I43" si="0">SUBTOTAL(9,E3,H3)</f>
+        <v>389.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="F4">
+        <v>1271</v>
+      </c>
+      <c r="G4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4">
+        <v>54.9</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1737</v>
+      </c>
+      <c r="F5">
+        <v>5169</v>
+      </c>
+      <c r="G5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5">
+        <v>325.2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2062.1999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3786.7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>17800</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H6" s="1">
+        <v>147.1</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>3933.7999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3462.8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>54420</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H7" s="1">
+        <v>81</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>3543.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>292.10000000000002</v>
+      </c>
+      <c r="F8">
+        <v>738</v>
+      </c>
+      <c r="G8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8">
+        <v>11.7</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>303.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>236</v>
+      </c>
+      <c r="F9">
+        <v>1654</v>
+      </c>
+      <c r="G9" t="s">
+        <v>298</v>
+      </c>
+      <c r="H9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>245.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3778.3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15730</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="1">
+        <v>114.7</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1452.8</v>
+      </c>
+      <c r="F12">
+        <v>8462</v>
+      </c>
+      <c r="G12" t="s">
+        <v>299</v>
+      </c>
+      <c r="H12">
+        <v>52.7</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1505.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>328.9</v>
+      </c>
+      <c r="F13">
+        <v>1415</v>
+      </c>
+      <c r="G13" t="s">
+        <v>309</v>
+      </c>
+      <c r="H13">
+        <v>53.7</v>
+      </c>
+      <c r="I13">
+        <f>SUBTOTAL(9,E13,H13)</f>
+        <v>382.59999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>933.4</v>
+      </c>
+      <c r="F14">
+        <v>2554</v>
+      </c>
+      <c r="G14" t="s">
+        <v>289</v>
+      </c>
+      <c r="H14">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>975.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>545.20000000000005</v>
+      </c>
+      <c r="F15">
+        <v>1560</v>
+      </c>
+      <c r="G15" t="s">
+        <v>300</v>
+      </c>
+      <c r="H15">
+        <v>83.3</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>628.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>968.4</v>
+      </c>
+      <c r="F16">
+        <v>5623</v>
+      </c>
+      <c r="G16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H16">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1122.0999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>873.2</v>
+      </c>
+      <c r="F17">
+        <v>3667</v>
+      </c>
+      <c r="G17" t="s">
+        <v>290</v>
+      </c>
+      <c r="H17">
+        <v>56.9</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>930.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>70.7</v>
+      </c>
+      <c r="F18">
+        <v>230</v>
+      </c>
+      <c r="G18" t="s">
+        <v>301</v>
+      </c>
+      <c r="H18">
+        <v>3.6</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>126.9</v>
+      </c>
+      <c r="F19">
+        <v>519</v>
+      </c>
+      <c r="G19" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19">
+        <v>100.8</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>227.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>83.9</v>
+      </c>
+      <c r="F20">
+        <v>231</v>
+      </c>
+      <c r="G20" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20">
+        <v>18.3</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>62.1</v>
+      </c>
+      <c r="F21">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H21">
+        <v>9.5</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>101.9</v>
+      </c>
+      <c r="F22">
+        <v>1422</v>
+      </c>
+      <c r="G22" t="s">
+        <v>291</v>
+      </c>
+      <c r="H22">
+        <v>35</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>136.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>1183.8</v>
+      </c>
+      <c r="F23">
+        <v>4357</v>
+      </c>
+      <c r="G23" t="s">
+        <v>292</v>
+      </c>
+      <c r="H23">
+        <v>51.2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>478.8</v>
+      </c>
+      <c r="F24">
+        <v>928</v>
+      </c>
+      <c r="G24" t="s">
+        <v>302</v>
+      </c>
+      <c r="H24">
+        <v>19.8</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>498.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>2308.1</v>
+      </c>
+      <c r="F25">
+        <v>55580</v>
+      </c>
+      <c r="G25" t="s">
+        <v>302</v>
+      </c>
+      <c r="H25">
+        <v>251.9</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1500.4</v>
+      </c>
+      <c r="F26">
+        <v>6130</v>
+      </c>
+      <c r="G26" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26">
+        <v>142.9</v>
+      </c>
+      <c r="I26">
+        <f>SUBTOTAL(9,E26,H26)</f>
+        <v>1643.3000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>1716.1</v>
+      </c>
+      <c r="F27">
+        <v>7506</v>
+      </c>
+      <c r="G27" t="s">
+        <v>303</v>
+      </c>
+      <c r="H27">
+        <v>51</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1767.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>989.9</v>
+      </c>
+      <c r="F28">
+        <v>14657</v>
+      </c>
+      <c r="G28" t="s">
+        <v>310</v>
+      </c>
+      <c r="H28">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>1133.0999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>1626.6</v>
+      </c>
+      <c r="F29">
+        <v>8593</v>
+      </c>
+      <c r="G29" t="s">
+        <v>271</v>
+      </c>
+      <c r="H29">
+        <v>649.20000000000005</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>2275.8000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>1137.7</v>
+      </c>
+      <c r="F30">
+        <v>2878</v>
+      </c>
+      <c r="G30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H30">
+        <v>500.8</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>1638.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>876.5</v>
+      </c>
+      <c r="F31">
+        <v>8771</v>
+      </c>
+      <c r="G31" t="s">
+        <v>311</v>
+      </c>
+      <c r="H31">
+        <v>527.70000000000005</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>1404.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="1">
+        <v>19081.099999999999</v>
+      </c>
+      <c r="F32" s="1">
+        <v>41610</v>
+      </c>
+      <c r="G32" t="s">
+        <v>271</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1018.1</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="0"/>
+        <v>20099.199999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6202.2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>36100</v>
+      </c>
+      <c r="G33" t="s">
+        <v>271</v>
+      </c>
+      <c r="H33" s="1">
+        <v>356.5</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>6558.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3087.2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>10019</v>
+      </c>
+      <c r="G34" t="s">
+        <v>271</v>
+      </c>
+      <c r="H34" s="1">
+        <v>195.5</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="0"/>
+        <v>3282.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>1770.7</v>
+      </c>
+      <c r="F35">
+        <v>3387</v>
+      </c>
+      <c r="G35" t="s">
+        <v>295</v>
+      </c>
+      <c r="H35">
+        <v>604.4</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>2375.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4333.6000000000004</v>
+      </c>
+      <c r="F36" s="1">
+        <v>14200</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H36" s="1">
+        <v>256.7</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="0"/>
+        <v>4590.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1130.8</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5449</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H37" s="1">
+        <v>480.1</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="0"/>
+        <v>1610.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>285</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="74">
+        <v>6789.6</v>
+      </c>
+      <c r="F38" s="74">
+        <v>12996</v>
+      </c>
+      <c r="G38" s="74" t="s">
+        <v>296</v>
+      </c>
+      <c r="H38" s="74">
+        <v>220.8</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="0"/>
+        <v>7010.4000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3132.5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3915</v>
+      </c>
+      <c r="G39" s="74" t="s">
+        <v>296</v>
+      </c>
+      <c r="H39" s="1">
+        <v>217</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>3349.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4607.7</v>
+      </c>
+      <c r="F40" s="1">
+        <v>18756</v>
+      </c>
+      <c r="G40" s="74" t="s">
+        <v>296</v>
+      </c>
+      <c r="H40" s="1">
+        <v>416.9</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>5024.5999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>1105.7</v>
+      </c>
+      <c r="F41">
+        <v>4221</v>
+      </c>
+      <c r="G41" t="s">
+        <v>293</v>
+      </c>
+      <c r="H41">
+        <v>13.4</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41" si="1">SUBTOTAL(9,E41,H41)</f>
+        <v>1119.1000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <v>148.4</v>
+      </c>
+      <c r="F42">
+        <v>492</v>
+      </c>
+      <c r="G42" t="s">
+        <v>305</v>
+      </c>
+      <c r="H42">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43">
+        <v>635.9</v>
+      </c>
+      <c r="F43">
+        <v>9278</v>
+      </c>
+      <c r="G43" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="H43">
+        <v>157.5</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>793.4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Monitoreo_de_candidatos_largo.xlsx
+++ b/Monitoreo_de_candidatos_largo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://controlriskscan-my.sharepoint.com/personal/angelica_mendez_controlrisks_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1604" documentId="8_{194206F6-F826-48E6-9C50-0079A5A6D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEB4D24B-C188-4183-87F6-7F6BAE568A83}"/>
+  <xr:revisionPtr revIDLastSave="1831" documentId="8_{194206F6-F826-48E6-9C50-0079A5A6D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34774711-ECA7-476C-BBD0-EA041D69E3FB}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="2340" windowWidth="21600" windowHeight="11175" firstSheet="1" activeTab="7" xr2:uid="{3D252F8C-4335-4931-923B-6975DF4F4743}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="6" activeTab="10" xr2:uid="{3D252F8C-4335-4931-923B-6975DF4F4743}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 1" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,13 @@
     <sheet name="Semana 7" sheetId="7" r:id="rId7"/>
     <sheet name="Semana 8" sheetId="9" r:id="rId8"/>
     <sheet name="Semana 9" sheetId="10" r:id="rId9"/>
-    <sheet name="Promedios totales candidato" sheetId="8" r:id="rId10"/>
+    <sheet name="Semana 10" sheetId="11" r:id="rId10"/>
+    <sheet name="Promedios totales candidato" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Promedios totales candidato'!$B$1:$I$373</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Promedios totales candidato'!$B$1:$I$373</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Semana 1'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Semana 10'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Semana 8'!$A$1:$I$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3879" uniqueCount="343">
   <si>
     <t>Espectro</t>
   </si>
@@ -992,6 +994,93 @@
   </si>
   <si>
     <t>Nov 05 – Nov 12</t>
+  </si>
+  <si>
+    <t>Publicación de campaña sobre la potencial unidad del centro para las elecciones</t>
+  </si>
+  <si>
+    <t>Publicación de campaña sobre las mujeres</t>
+  </si>
+  <si>
+    <t>Publicación de campaña sobre las mujeres y sobre el envejecimiento de la población</t>
+  </si>
+  <si>
+    <t>Publicación de campaña sobre su apertura a recibir opiniones</t>
+  </si>
+  <si>
+    <t>Publicación a favor de las fuerzas armadas por los bombardeos en el Guaviare</t>
+  </si>
+  <si>
+    <t>Publicación de campaña cantando</t>
+  </si>
+  <si>
+    <t>Publicación de campaña mostrando a su familia</t>
+  </si>
+  <si>
+    <t>Publicación pidiendo a las FFAA desobedecer a Petro</t>
+  </si>
+  <si>
+    <t>Publicación con su slogan de campaña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicación en contra de la registraduría porque no permiten su registro de candidatura por firmas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicación respecto a la suma del apoyo del partido liberal. </t>
+  </si>
+  <si>
+    <t>Publicación de campaña sobre su propuesta de seguridad</t>
+  </si>
+  <si>
+    <t>Publicación de campaña en Cali</t>
+  </si>
+  <si>
+    <t>Publicación de campaña sobre música</t>
+  </si>
+  <si>
+    <t>Publicación de campaña sobre la unión de partidos en el centro</t>
+  </si>
+  <si>
+    <t>Publicación de campaña en contra de Petro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicación criticando al partido liberal. </t>
+  </si>
+  <si>
+    <t>Publicación de campaña con video de Daniel Samper</t>
+  </si>
+  <si>
+    <t>Publicación en contra de Petro por los bombardeos en Guaviare</t>
+  </si>
+  <si>
+    <t>Publicación de campaña sobre la recolección de firmas</t>
+  </si>
+  <si>
+    <t>Publicción de campaña en contra del bombardeo de niños en el Guaviare</t>
+  </si>
+  <si>
+    <t>Publicación en contra de Vicky Davila</t>
+  </si>
+  <si>
+    <t>Publicación de campalña en contra de Petro</t>
+  </si>
+  <si>
+    <t>Publicación de campaña sobre fútbol</t>
+  </si>
+  <si>
+    <t>Publicación de seguridad</t>
+  </si>
+  <si>
+    <t>Publicación en contra de Venezuela</t>
+  </si>
+  <si>
+    <t>Publicación a favor de la paz</t>
+  </si>
+  <si>
+    <t>Semana 10</t>
+  </si>
+  <si>
+    <t>Nov 12 - Nov 19</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1305,6 +1394,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1642,21 +1734,21 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1"/>
+    <col min="7" max="7" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1702,7 +1794,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1725,7 +1817,7 @@
         <v>261.10000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1748,7 +1840,7 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1771,7 +1863,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1794,7 +1886,7 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1817,7 +1909,7 @@
         <v>339.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +1932,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1863,7 +1955,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1886,7 +1978,7 @@
         <v>149.19999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1909,7 +2001,7 @@
         <v>404.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1932,7 +2024,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1955,7 +2047,7 @@
         <v>225.4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1978,7 +2070,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2001,7 +2093,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2022,7 +2114,7 @@
         <v>123.4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2045,7 +2137,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2068,7 +2160,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2091,7 +2183,7 @@
         <v>150.6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2114,7 +2206,7 @@
         <v>639.6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2137,7 +2229,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2160,7 +2252,7 @@
         <v>2061.1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2183,7 +2275,7 @@
         <v>210.2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2194,7 +2286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2205,7 +2297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2228,7 +2320,7 @@
         <v>465.7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2251,7 +2343,7 @@
         <v>192.4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2274,7 +2366,7 @@
         <v>516.79999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2297,7 +2389,7 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2320,7 +2412,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2343,7 +2435,7 @@
         <v>1236.9000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2366,7 +2458,7 @@
         <v>179.2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -2389,7 +2481,7 @@
         <v>286.39999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -2412,7 +2504,7 @@
         <v>1214.2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -2435,7 +2527,7 @@
         <v>1054.5999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -2458,7 +2550,7 @@
         <v>256.2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -2481,7 +2573,7 @@
         <v>650.29999999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -2504,7 +2596,7 @@
         <v>355.1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -2527,7 +2619,7 @@
         <v>67.75</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -2550,7 +2642,7 @@
         <v>938.7</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -2561,7 +2653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -2572,7 +2664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -2590,22 +2682,1191 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6FA629-4877-42B1-A680-1262F55C3057}">
-  <dimension ref="A1:I373"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58C660C-3D0A-4A88-8655-C4047259147E}">
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B360" sqref="B360"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="5" max="5" width="23.08984375" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>1052.2</v>
+      </c>
+      <c r="E2">
+        <v>5033</v>
+      </c>
+      <c r="F2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2">
+        <v>87.3</v>
+      </c>
+      <c r="H2">
+        <f>SUBTOTAL(9,D2,G2)</f>
+        <v>1139.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>308.5</v>
+      </c>
+      <c r="E3">
+        <v>663</v>
+      </c>
+      <c r="F3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3">
+        <v>63.2</v>
+      </c>
+      <c r="H3">
+        <f>SUBTOTAL(9,D5,G5)</f>
+        <v>1080.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>410.7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4">
+        <v>73.8</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H43" si="0">SUBTOTAL(9,D4,G4)</f>
+        <v>484.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>975.2</v>
+      </c>
+      <c r="E5">
+        <v>3181</v>
+      </c>
+      <c r="F5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5">
+        <v>105.6</v>
+      </c>
+      <c r="H5">
+        <f>SUBTOTAL(9,D5,G5)</f>
+        <v>1080.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>1622</v>
+      </c>
+      <c r="E6">
+        <v>10200</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G6">
+        <v>74.3</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>1696.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>213.8</v>
+      </c>
+      <c r="E7">
+        <v>1619</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G7">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>282.89999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>1924.6</v>
+      </c>
+      <c r="E8">
+        <v>9420</v>
+      </c>
+      <c r="F8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8">
+        <v>140.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2065.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="E9">
+        <v>1373</v>
+      </c>
+      <c r="F9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G9">
+        <v>11.8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>271.40000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>6265.2</v>
+      </c>
+      <c r="E11">
+        <v>34041</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11">
+        <v>159.1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>6424.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>331.4</v>
+      </c>
+      <c r="E12">
+        <v>1694</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12">
+        <v>5.4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>336.79999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>86.7</v>
+      </c>
+      <c r="E13">
+        <v>785</v>
+      </c>
+      <c r="F13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H13">
+        <f>SUBTOTAL(9,D13,G13)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>1038.3</v>
+      </c>
+      <c r="E14">
+        <v>2812</v>
+      </c>
+      <c r="F14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G14">
+        <v>64.8</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1103.0999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>223</v>
+      </c>
+      <c r="E15">
+        <v>669</v>
+      </c>
+      <c r="F15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G15">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>256.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>877</v>
+      </c>
+      <c r="E16">
+        <v>2933</v>
+      </c>
+      <c r="F16" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16">
+        <v>161</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>472.5</v>
+      </c>
+      <c r="E17">
+        <v>1290</v>
+      </c>
+      <c r="F17" t="s">
+        <v>319</v>
+      </c>
+      <c r="G17">
+        <v>31.3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>503.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>108.7</v>
+      </c>
+      <c r="E18">
+        <v>419</v>
+      </c>
+      <c r="F18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G18">
+        <v>5.7</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>114.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>115.4</v>
+      </c>
+      <c r="E19">
+        <v>351</v>
+      </c>
+      <c r="F19" t="s">
+        <v>337</v>
+      </c>
+      <c r="G19">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>184.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>100.4</v>
+      </c>
+      <c r="E20">
+        <v>543</v>
+      </c>
+      <c r="F20" t="s">
+        <v>330</v>
+      </c>
+      <c r="G20">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>110.60000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="E21">
+        <v>451</v>
+      </c>
+      <c r="F21" t="s">
+        <v>330</v>
+      </c>
+      <c r="G21">
+        <v>3.2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>48.6</v>
+      </c>
+      <c r="E22">
+        <v>395</v>
+      </c>
+      <c r="F22" t="s">
+        <v>330</v>
+      </c>
+      <c r="G22">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>4029.3</v>
+      </c>
+      <c r="E23">
+        <v>26133</v>
+      </c>
+      <c r="F23" t="s">
+        <v>320</v>
+      </c>
+      <c r="G23">
+        <v>475.7</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>333.6</v>
+      </c>
+      <c r="E24">
+        <v>476</v>
+      </c>
+      <c r="F24" t="s">
+        <v>331</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>341.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>3164.5</v>
+      </c>
+      <c r="E25">
+        <v>41546</v>
+      </c>
+      <c r="F25" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25">
+        <v>228.4</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>3392.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>7338</v>
+      </c>
+      <c r="E26">
+        <v>54722</v>
+      </c>
+      <c r="F26" t="s">
+        <v>300</v>
+      </c>
+      <c r="G26">
+        <v>380.2</v>
+      </c>
+      <c r="H26">
+        <f>SUBTOTAL(9,D26,G26)</f>
+        <v>7718.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>4972.6000000000004</v>
+      </c>
+      <c r="E27">
+        <v>18800</v>
+      </c>
+      <c r="F27" t="s">
+        <v>300</v>
+      </c>
+      <c r="G27">
+        <v>288.2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>5260.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>619.4</v>
+      </c>
+      <c r="E28">
+        <v>5560</v>
+      </c>
+      <c r="F28" t="s">
+        <v>339</v>
+      </c>
+      <c r="G28">
+        <v>94</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>713.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>4285.8999999999996</v>
+      </c>
+      <c r="E29">
+        <v>55885</v>
+      </c>
+      <c r="F29" t="s">
+        <v>321</v>
+      </c>
+      <c r="G29">
+        <v>539.70000000000005</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>4825.5999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>226.4</v>
+      </c>
+      <c r="E30">
+        <v>469</v>
+      </c>
+      <c r="F30" t="s">
+        <v>332</v>
+      </c>
+      <c r="G30">
+        <v>91.2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>317.60000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <v>954.4</v>
+      </c>
+      <c r="E31">
+        <v>4855</v>
+      </c>
+      <c r="F31" t="s">
+        <v>339</v>
+      </c>
+      <c r="G31">
+        <v>226.3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>1180.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>35551.5</v>
+      </c>
+      <c r="E32">
+        <v>128348</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G32">
+        <v>4035</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>39586.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>2645.3</v>
+      </c>
+      <c r="E33">
+        <v>7247</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G33">
+        <v>191</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>2836.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>2643.7</v>
+      </c>
+      <c r="E34">
+        <v>10106</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G34">
+        <v>209.5</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>2853.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>786</v>
+      </c>
+      <c r="E35">
+        <v>934</v>
+      </c>
+      <c r="F35" t="s">
+        <v>323</v>
+      </c>
+      <c r="G35">
+        <v>645</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>1104</v>
+      </c>
+      <c r="E36">
+        <v>1128</v>
+      </c>
+      <c r="F36" t="s">
+        <v>323</v>
+      </c>
+      <c r="G36">
+        <v>115.5</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>1219.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>735.5</v>
+      </c>
+      <c r="E37">
+        <v>2774</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37">
+        <v>348.8</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>1084.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>3182.5</v>
+      </c>
+      <c r="E38">
+        <v>3516</v>
+      </c>
+      <c r="F38" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38">
+        <v>104</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>3286.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>3957</v>
+      </c>
+      <c r="E39">
+        <v>3957</v>
+      </c>
+      <c r="F39" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39">
+        <v>120</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>2005.2</v>
+      </c>
+      <c r="E40">
+        <v>11729</v>
+      </c>
+      <c r="F40" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40">
+        <v>202.5</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>2207.6999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>2060.6</v>
+      </c>
+      <c r="E41">
+        <v>3604</v>
+      </c>
+      <c r="F41" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41">
+        <v>14.6</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>2075.1999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>7659.1</v>
+      </c>
+      <c r="E42">
+        <v>32800</v>
+      </c>
+      <c r="F42" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42">
+        <v>5.25</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>7664.35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43">
+        <v>114.7</v>
+      </c>
+      <c r="E43">
+        <v>422</v>
+      </c>
+      <c r="F43" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="G43">
+        <v>34.4</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>149.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{C58C660C-3D0A-4A88-8655-C4047259147E}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6FA629-4877-42B1-A680-1262F55C3057}">
+  <dimension ref="A1:I415"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A406" zoomScale="102" workbookViewId="0">
+      <selection activeCell="H374" sqref="H374:I415"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="24.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>255</v>
       </c>
@@ -2634,7 +3895,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>247</v>
       </c>
@@ -2663,7 +3924,7 @@
         <v>167.00000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>247</v>
       </c>
@@ -2692,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>247</v>
       </c>
@@ -2721,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>247</v>
       </c>
@@ -2750,7 +4011,7 @@
         <v>264.03333333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>247</v>
       </c>
@@ -2779,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -2808,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>247</v>
       </c>
@@ -2837,7 +4098,7 @@
         <v>115.43333333333332</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>247</v>
       </c>
@@ -2866,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>247</v>
       </c>
@@ -2895,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -2924,7 +4185,7 @@
         <v>215.76666666666668</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>247</v>
       </c>
@@ -2953,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>247</v>
       </c>
@@ -2982,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>247</v>
       </c>
@@ -3011,7 +4272,7 @@
         <v>59.45000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -3040,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -3069,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>247</v>
       </c>
@@ -3098,7 +4359,7 @@
         <v>83.36666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>247</v>
       </c>
@@ -3127,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>247</v>
       </c>
@@ -3156,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>247</v>
       </c>
@@ -3185,7 +4446,7 @@
         <v>926.16666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>247</v>
       </c>
@@ -3214,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>247</v>
       </c>
@@ -3243,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>247</v>
       </c>
@@ -3272,7 +4533,7 @@
         <v>210.2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>247</v>
       </c>
@@ -3301,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>247</v>
       </c>
@@ -3330,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>247</v>
       </c>
@@ -3359,7 +4620,7 @@
         <v>391.63333333333338</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>247</v>
       </c>
@@ -3388,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>247</v>
       </c>
@@ -3417,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>247</v>
       </c>
@@ -3446,7 +4707,7 @@
         <v>1951.3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>247</v>
       </c>
@@ -3475,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -3504,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>247</v>
       </c>
@@ -3533,7 +4794,7 @@
         <v>559.93333333333328</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>247</v>
       </c>
@@ -3562,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -3591,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>247</v>
       </c>
@@ -3620,7 +4881,7 @@
         <v>653.69999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -3649,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>247</v>
       </c>
@@ -3678,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>247</v>
       </c>
@@ -3707,7 +4968,7 @@
         <v>453.85000000000008</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>247</v>
       </c>
@@ -3736,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>247</v>
       </c>
@@ -3765,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>248</v>
       </c>
@@ -3794,7 +5055,7 @@
         <v>88.546666666666667</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>248</v>
       </c>
@@ -3823,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>248</v>
       </c>
@@ -3852,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>248</v>
       </c>
@@ -3881,7 +5142,7 @@
         <v>135.29999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>248</v>
       </c>
@@ -3910,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>248</v>
       </c>
@@ -3939,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>248</v>
       </c>
@@ -3968,7 +5229,7 @@
         <v>36.333333333333336</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>248</v>
       </c>
@@ -3997,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>248</v>
       </c>
@@ -4026,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>248</v>
       </c>
@@ -4055,7 +5316,7 @@
         <v>40.833333333333336</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>248</v>
       </c>
@@ -4084,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -4113,7 +5374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>248</v>
       </c>
@@ -4142,7 +5403,7 @@
         <v>78.233333333333334</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>248</v>
       </c>
@@ -4171,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>248</v>
       </c>
@@ -4200,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>248</v>
       </c>
@@ -4229,7 +5490,7 @@
         <v>67.466666666666669</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>248</v>
       </c>
@@ -4258,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>248</v>
       </c>
@@ -4287,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>248</v>
       </c>
@@ -4316,7 +5577,7 @@
         <v>298.63333333333333</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>248</v>
       </c>
@@ -4345,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>248</v>
       </c>
@@ -4374,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -4403,7 +5664,7 @@
         <v>321.89999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>248</v>
       </c>
@@ -4432,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>248</v>
       </c>
@@ -4461,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>248</v>
       </c>
@@ -4490,7 +5751,7 @@
         <v>371.59999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>248</v>
       </c>
@@ -4519,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>248</v>
       </c>
@@ -4548,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>248</v>
       </c>
@@ -4577,7 +5838,7 @@
         <v>1019.4333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>248</v>
       </c>
@@ -4606,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>248</v>
       </c>
@@ -4635,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>248</v>
       </c>
@@ -4664,7 +5925,7 @@
         <v>160.03333333333333</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>248</v>
       </c>
@@ -4693,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>248</v>
       </c>
@@ -4722,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>248</v>
       </c>
@@ -4751,7 +6012,7 @@
         <v>300.09999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>248</v>
       </c>
@@ -4780,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>248</v>
       </c>
@@ -4809,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>248</v>
       </c>
@@ -4838,7 +6099,7 @@
         <v>1011.4666666666667</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>248</v>
       </c>
@@ -4867,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>248</v>
       </c>
@@ -4896,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="36" t="s">
         <v>249</v>
       </c>
@@ -4925,7 +6186,7 @@
         <v>184.4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>249</v>
       </c>
@@ -4954,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>249</v>
       </c>
@@ -4983,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>249</v>
       </c>
@@ -5012,7 +6273,7 @@
         <v>62.43333333333333</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>250</v>
       </c>
@@ -5041,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>250</v>
       </c>
@@ -5070,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>250</v>
       </c>
@@ -5099,7 +6360,7 @@
         <v>26.566666666666666</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -5128,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>250</v>
       </c>
@@ -5157,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>250</v>
       </c>
@@ -5186,7 +6447,7 @@
         <v>44.566666666666663</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>250</v>
       </c>
@@ -5215,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -5244,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>250</v>
       </c>
@@ -5273,7 +6534,7 @@
         <v>58.833333333333336</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>250</v>
       </c>
@@ -5302,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>250</v>
       </c>
@@ -5331,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>250</v>
       </c>
@@ -5360,7 +6621,7 @@
         <v>63.199999999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>250</v>
       </c>
@@ -5389,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>250</v>
       </c>
@@ -5418,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>250</v>
       </c>
@@ -5447,7 +6708,7 @@
         <v>192.38333333333333</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>250</v>
       </c>
@@ -5476,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>250</v>
       </c>
@@ -5505,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>250</v>
       </c>
@@ -5534,7 +6795,7 @@
         <v>208.7</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>250</v>
       </c>
@@ -5563,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>250</v>
       </c>
@@ -5592,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>250</v>
       </c>
@@ -5621,7 +6882,7 @@
         <v>555.75</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>250</v>
       </c>
@@ -5650,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>250</v>
       </c>
@@ -5679,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>250</v>
       </c>
@@ -5708,7 +6969,7 @@
         <v>450.46666666666664</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>250</v>
       </c>
@@ -5737,7 +6998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>250</v>
       </c>
@@ -5766,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>250</v>
       </c>
@@ -5795,7 +7056,7 @@
         <v>232.83333333333334</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>250</v>
       </c>
@@ -5824,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>250</v>
       </c>
@@ -5853,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>250</v>
       </c>
@@ -5882,7 +7143,7 @@
         <v>307.53333333333336</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>250</v>
       </c>
@@ -5911,7 +7172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>250</v>
       </c>
@@ -5940,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>250</v>
       </c>
@@ -5969,7 +7230,7 @@
         <v>372.9666666666667</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>250</v>
       </c>
@@ -5998,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>250</v>
       </c>
@@ -6027,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -6056,7 +7317,7 @@
         <v>378.09999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>250</v>
       </c>
@@ -6085,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>250</v>
       </c>
@@ -6114,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.4">
       <c r="A122" s="36" t="s">
         <v>251</v>
       </c>
@@ -6143,7 +7404,7 @@
         <v>65.733333333333334</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>251</v>
       </c>
@@ -6172,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>251</v>
       </c>
@@ -6201,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>251</v>
       </c>
@@ -6230,7 +7491,7 @@
         <v>65.266666666666666</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -6259,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>251</v>
       </c>
@@ -6288,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -6317,7 +7578,7 @@
         <v>100.83333333333333</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>251</v>
       </c>
@@ -6346,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>251</v>
       </c>
@@ -6375,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>251</v>
       </c>
@@ -6404,7 +7665,7 @@
         <v>48.333333333333336</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>251</v>
       </c>
@@ -6433,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>251</v>
       </c>
@@ -6462,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>251</v>
       </c>
@@ -6491,7 +7752,7 @@
         <v>117.86666666666667</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>251</v>
       </c>
@@ -6520,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>251</v>
       </c>
@@ -6549,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>251</v>
       </c>
@@ -6578,7 +7839,7 @@
         <v>152.76666666666665</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>251</v>
       </c>
@@ -6607,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>251</v>
       </c>
@@ -6636,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>251</v>
       </c>
@@ -6665,7 +7926,7 @@
         <v>132.86666666666667</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>251</v>
       </c>
@@ -6694,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>251</v>
       </c>
@@ -6723,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>251</v>
       </c>
@@ -6752,7 +8013,7 @@
         <v>160.80000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>251</v>
       </c>
@@ -6781,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>251</v>
       </c>
@@ -6810,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>251</v>
       </c>
@@ -6839,7 +8100,7 @@
         <v>956.16666666666663</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>251</v>
       </c>
@@ -6868,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>251</v>
       </c>
@@ -6897,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>251</v>
       </c>
@@ -6926,7 +8187,7 @@
         <v>582.26666666666677</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>251</v>
       </c>
@@ -6955,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>251</v>
       </c>
@@ -6984,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>251</v>
       </c>
@@ -7013,7 +8274,7 @@
         <v>415.5</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>251</v>
       </c>
@@ -7042,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>251</v>
       </c>
@@ -7071,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>251</v>
       </c>
@@ -7100,7 +8361,7 @@
         <v>247.53333333333333</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>251</v>
       </c>
@@ -7129,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>251</v>
       </c>
@@ -7158,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>251</v>
       </c>
@@ -7187,7 +8448,7 @@
         <v>353.40000000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>251</v>
       </c>
@@ -7216,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>251</v>
       </c>
@@ -7245,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>251</v>
       </c>
@@ -7274,7 +8535,7 @@
         <v>311.13333333333333</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>251</v>
       </c>
@@ -7303,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>251</v>
       </c>
@@ -7332,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="36" t="s">
         <v>252</v>
       </c>
@@ -7361,7 +8622,7 @@
         <v>46.633333333333333</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>252</v>
       </c>
@@ -7390,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>252</v>
       </c>
@@ -7419,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>252</v>
       </c>
@@ -7448,7 +8709,7 @@
         <v>913.94999999999993</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>252</v>
       </c>
@@ -7477,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>252</v>
       </c>
@@ -7506,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>252</v>
       </c>
@@ -7535,7 +8796,7 @@
         <v>54.933333333333337</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>252</v>
       </c>
@@ -7564,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>252</v>
       </c>
@@ -7593,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>252</v>
       </c>
@@ -7622,7 +8883,7 @@
         <v>94.100000000000009</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>252</v>
       </c>
@@ -7651,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>252</v>
       </c>
@@ -7680,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>252</v>
       </c>
@@ -7709,7 +8970,7 @@
         <v>267.3</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>252</v>
       </c>
@@ -7738,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>252</v>
       </c>
@@ -7767,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>252</v>
       </c>
@@ -7796,7 +9057,7 @@
         <v>55.70000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>252</v>
       </c>
@@ -7825,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>252</v>
       </c>
@@ -7854,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>252</v>
       </c>
@@ -7883,7 +9144,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>252</v>
       </c>
@@ -7912,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>252</v>
       </c>
@@ -7941,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>252</v>
       </c>
@@ -7970,7 +9231,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>252</v>
       </c>
@@ -7999,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>252</v>
       </c>
@@ -8028,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>252</v>
       </c>
@@ -8057,7 +9318,7 @@
         <v>321.86666666666667</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>252</v>
       </c>
@@ -8086,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>252</v>
       </c>
@@ -8115,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>252</v>
       </c>
@@ -8144,7 +9405,7 @@
         <v>646.93333333333328</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>252</v>
       </c>
@@ -8173,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>252</v>
       </c>
@@ -8202,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>252</v>
       </c>
@@ -8231,7 +9492,7 @@
         <v>257.2</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>252</v>
       </c>
@@ -8260,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>252</v>
       </c>
@@ -8289,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>252</v>
       </c>
@@ -8318,7 +9579,7 @@
         <v>194.73333333333335</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>252</v>
       </c>
@@ -8347,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>252</v>
       </c>
@@ -8376,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>252</v>
       </c>
@@ -8405,7 +9666,7 @@
         <v>166.03333333333333</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>252</v>
       </c>
@@ -8434,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>252</v>
       </c>
@@ -8463,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>252</v>
       </c>
@@ -8492,7 +9753,7 @@
         <v>251.16666666666666</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>252</v>
       </c>
@@ -8521,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>252</v>
       </c>
@@ -8550,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="36" t="s">
         <v>253</v>
       </c>
@@ -8579,7 +9840,7 @@
         <v>163.66666666666666</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>253</v>
       </c>
@@ -8608,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>253</v>
       </c>
@@ -8637,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>253</v>
       </c>
@@ -8666,7 +9927,7 @@
         <v>277.66666666666669</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>253</v>
       </c>
@@ -8695,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>253</v>
       </c>
@@ -8724,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>253</v>
       </c>
@@ -8753,7 +10014,7 @@
         <v>15.866666666666665</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>253</v>
       </c>
@@ -8782,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>253</v>
       </c>
@@ -8811,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>253</v>
       </c>
@@ -8840,7 +10101,7 @@
         <v>201.83333333333334</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>253</v>
       </c>
@@ -8869,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>253</v>
       </c>
@@ -8898,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>253</v>
       </c>
@@ -8927,7 +10188,7 @@
         <v>117.86666666666667</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>253</v>
       </c>
@@ -8956,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>253</v>
       </c>
@@ -8985,7 +10246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>253</v>
       </c>
@@ -9014,7 +10275,7 @@
         <v>124.66666666666667</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>253</v>
       </c>
@@ -9043,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>253</v>
       </c>
@@ -9072,7 +10333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>253</v>
       </c>
@@ -9101,7 +10362,7 @@
         <v>190.66666666666666</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>253</v>
       </c>
@@ -9130,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>253</v>
       </c>
@@ -9159,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>253</v>
       </c>
@@ -9188,7 +10449,7 @@
         <v>240.3</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>253</v>
       </c>
@@ -9217,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>253</v>
       </c>
@@ -9246,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -9275,7 +10536,7 @@
         <v>250.29999999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>253</v>
       </c>
@@ -9304,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>253</v>
       </c>
@@ -9333,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>253</v>
       </c>
@@ -9362,7 +10623,7 @@
         <v>2099.5000000000005</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>253</v>
       </c>
@@ -9391,7 +10652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>253</v>
       </c>
@@ -9420,7 +10681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>253</v>
       </c>
@@ -9445,7 +10706,7 @@
       <c r="H236" s="20"/>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -9470,7 +10731,7 @@
       <c r="H237" s="20"/>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>253</v>
       </c>
@@ -9495,7 +10756,7 @@
       <c r="H238" s="20"/>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>253</v>
       </c>
@@ -9524,7 +10785,7 @@
         <v>831.09999999999991</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>253</v>
       </c>
@@ -9553,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>253</v>
       </c>
@@ -9582,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>253</v>
       </c>
@@ -9611,7 +10872,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>253</v>
       </c>
@@ -9640,7 +10901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>253</v>
       </c>
@@ -9669,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>253</v>
       </c>
@@ -9698,7 +10959,7 @@
         <v>326.03333333333336</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>253</v>
       </c>
@@ -9727,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -9756,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>254</v>
       </c>
@@ -9785,7 +11046,7 @@
         <v>60.666666666666664</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>254</v>
       </c>
@@ -9814,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>254</v>
       </c>
@@ -9843,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>254</v>
       </c>
@@ -9872,7 +11133,7 @@
         <v>2048.3000000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>254</v>
       </c>
@@ -9901,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -9930,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -9959,7 +11220,7 @@
         <v>10.950000000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -9988,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -10017,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -10046,7 +11307,7 @@
         <v>46.466666666666669</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>254</v>
       </c>
@@ -10075,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>254</v>
       </c>
@@ -10104,7 +11365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>254</v>
       </c>
@@ -10133,7 +11394,7 @@
         <v>153.83333333333334</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>254</v>
       </c>
@@ -10162,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>254</v>
       </c>
@@ -10191,7 +11452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>254</v>
       </c>
@@ -10220,7 +11481,7 @@
         <v>184.93333333333331</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>254</v>
       </c>
@@ -10249,7 +11510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>254</v>
       </c>
@@ -10278,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>254</v>
       </c>
@@ -10307,7 +11568,7 @@
         <v>22.966666666666669</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>254</v>
       </c>
@@ -10336,7 +11597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>254</v>
       </c>
@@ -10365,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>254</v>
       </c>
@@ -10394,7 +11655,7 @@
         <v>115.7</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>254</v>
       </c>
@@ -10423,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>254</v>
       </c>
@@ -10452,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>254</v>
       </c>
@@ -10481,7 +11742,7 @@
         <v>304.3</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>254</v>
       </c>
@@ -10510,7 +11771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>254</v>
       </c>
@@ -10539,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>254</v>
       </c>
@@ -10568,7 +11829,7 @@
         <v>594.5333333333333</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>254</v>
       </c>
@@ -10597,7 +11858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>254</v>
       </c>
@@ -10626,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>254</v>
       </c>
@@ -10655,7 +11916,7 @@
         <v>1000.7999999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>254</v>
       </c>
@@ -10684,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>254</v>
       </c>
@@ -10713,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>254</v>
       </c>
@@ -10742,7 +12003,7 @@
         <v>700.5</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>254</v>
       </c>
@@ -10771,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>254</v>
       </c>
@@ -10800,7 +12061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>254</v>
       </c>
@@ -10829,7 +12090,7 @@
         <v>330.03333333333336</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>254</v>
       </c>
@@ -10858,7 +12119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>254</v>
       </c>
@@ -10887,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>254</v>
       </c>
@@ -10916,7 +12177,7 @@
         <v>49.566666666666663</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>254</v>
       </c>
@@ -10945,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>254</v>
       </c>
@@ -10974,7 +12235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>282</v>
       </c>
@@ -11003,7 +12264,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>282</v>
       </c>
@@ -11032,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>282</v>
       </c>
@@ -11061,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>282</v>
       </c>
@@ -11090,7 +12351,7 @@
         <v>73.966666666666669</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>282</v>
       </c>
@@ -11119,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>282</v>
       </c>
@@ -11148,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>282</v>
       </c>
@@ -11177,7 +12438,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>282</v>
       </c>
@@ -11206,7 +12467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>282</v>
       </c>
@@ -11235,7 +12496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>282</v>
       </c>
@@ -11264,7 +12525,7 @@
         <v>45.699999999999996</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>282</v>
       </c>
@@ -11293,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>282</v>
       </c>
@@ -11322,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>282</v>
       </c>
@@ -11351,7 +12612,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>282</v>
       </c>
@@ -11380,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>282</v>
       </c>
@@ -11409,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>282</v>
       </c>
@@ -11438,7 +12699,7 @@
         <v>113.3</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>282</v>
       </c>
@@ -11467,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>282</v>
       </c>
@@ -11496,7 +12757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>282</v>
       </c>
@@ -11525,7 +12786,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>282</v>
       </c>
@@ -11554,7 +12815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>282</v>
       </c>
@@ -11583,7 +12844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>282</v>
       </c>
@@ -11612,7 +12873,7 @@
         <v>100.7</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>282</v>
       </c>
@@ -11641,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>282</v>
       </c>
@@ -11670,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>282</v>
       </c>
@@ -11699,7 +12960,7 @@
         <v>209.56666666666669</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>282</v>
       </c>
@@ -11728,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>282</v>
       </c>
@@ -11757,7 +13018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>282</v>
       </c>
@@ -11786,7 +13047,7 @@
         <v>159.20000000000002</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>282</v>
       </c>
@@ -11815,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>282</v>
       </c>
@@ -11844,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>282</v>
       </c>
@@ -11873,7 +13134,7 @@
         <v>560.36666666666667</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>282</v>
       </c>
@@ -11902,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>282</v>
       </c>
@@ -11931,7 +13192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>282</v>
       </c>
@@ -11960,7 +13221,7 @@
         <v>517.16666666666663</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>282</v>
       </c>
@@ -11989,7 +13250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>282</v>
       </c>
@@ -12018,7 +13279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>282</v>
       </c>
@@ -12047,7 +13308,7 @@
         <v>1207.75</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>282</v>
       </c>
@@ -12076,7 +13337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>282</v>
       </c>
@@ -12105,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>282</v>
       </c>
@@ -12134,7 +13395,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>282</v>
       </c>
@@ -12163,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>282</v>
       </c>
@@ -12192,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>311</v>
       </c>
@@ -12221,7 +13482,7 @@
         <v>39.800000000000004</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>311</v>
       </c>
@@ -12244,7 +13505,7 @@
         <v>1824.1722222222222</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>311</v>
       </c>
@@ -12267,7 +13528,7 @@
         <v>637.59999999999991</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>311</v>
       </c>
@@ -12296,7 +13557,7 @@
         <v>184.43333333333331</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>312</v>
       </c>
@@ -12320,7 +13581,7 @@
       </c>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>312</v>
       </c>
@@ -12344,7 +13605,7 @@
       </c>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>312</v>
       </c>
@@ -12373,7 +13634,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>312</v>
       </c>
@@ -12396,7 +13657,7 @@
         <v>286.85555555555561</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>312</v>
       </c>
@@ -12419,7 +13680,7 @@
         <v>335.63333333333333</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>312</v>
       </c>
@@ -12448,7 +13709,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>312</v>
       </c>
@@ -12471,7 +13732,7 @@
         <v>521.66666666666663</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>312</v>
       </c>
@@ -12494,7 +13755,7 @@
         <v>827.14444444444462</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>312</v>
       </c>
@@ -12523,7 +13784,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>312</v>
       </c>
@@ -12546,7 +13807,7 @@
         <v>407.51666666666665</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
         <v>312</v>
       </c>
@@ -12569,7 +13830,7 @@
         <v>1084.288888888889</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
         <v>312</v>
       </c>
@@ -12598,7 +13859,7 @@
         <v>53.766666666666673</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
         <v>312</v>
       </c>
@@ -12621,7 +13882,7 @@
         <v>641.75555555555559</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>312</v>
       </c>
@@ -12644,7 +13905,7 @@
         <v>583.86666666666656</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>312</v>
       </c>
@@ -12673,7 +13934,7 @@
         <v>20.933333333333334</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>312</v>
       </c>
@@ -12696,7 +13957,7 @@
         <v>967.93333333333351</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>312</v>
       </c>
@@ -12719,7 +13980,7 @@
         <v>2628.4666666666667</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>312</v>
       </c>
@@ -12748,7 +14009,7 @@
         <v>107.63333333333333</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>312</v>
       </c>
@@ -12771,7 +14032,7 @@
         <v>475.94444444444446</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>312</v>
       </c>
@@ -12794,7 +14055,7 @@
         <v>1333.6333333333334</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>312</v>
       </c>
@@ -12823,7 +14084,7 @@
         <v>112.36666666666667</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>312</v>
       </c>
@@ -12846,7 +14107,7 @@
         <v>2144.9166666666665</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>312</v>
       </c>
@@ -12869,7 +14130,7 @@
         <v>1801.4555555555555</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>312</v>
       </c>
@@ -12898,7 +14159,7 @@
         <v>559.23333333333335</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>312</v>
       </c>
@@ -12921,7 +14182,7 @@
         <v>10112.5</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>312</v>
       </c>
@@ -12944,7 +14205,7 @@
         <v>3425.3999999999996</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>312</v>
       </c>
@@ -12973,7 +14234,7 @@
         <v>523.36666666666667</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>312</v>
       </c>
@@ -12997,7 +14258,7 @@
       </c>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
         <v>312</v>
       </c>
@@ -13021,7 +14282,7 @@
       </c>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>312</v>
       </c>
@@ -13050,7 +14311,7 @@
         <v>447.06666666666661</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>312</v>
       </c>
@@ -13074,7 +14335,7 @@
       </c>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>312</v>
       </c>
@@ -13098,7 +14359,7 @@
       </c>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>312</v>
       </c>
@@ -13127,7 +14388,7 @@
         <v>284.90000000000003</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>312</v>
       </c>
@@ -13151,7 +14412,7 @@
       </c>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>312</v>
       </c>
@@ -13175,7 +14436,7 @@
       </c>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>312</v>
       </c>
@@ -13204,7 +14465,7 @@
         <v>63.166666666666664</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>312</v>
       </c>
@@ -13227,7 +14488,7 @@
         <v>2428.5444444444443</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>312</v>
       </c>
@@ -13248,6 +14509,1056 @@
       </c>
       <c r="G373">
         <v>1570.8555555555554</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A374" t="s">
+        <v>341</v>
+      </c>
+      <c r="B374" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C374" t="s">
+        <v>21</v>
+      </c>
+      <c r="D374" t="s">
+        <v>7</v>
+      </c>
+      <c r="E374" t="s">
+        <v>24</v>
+      </c>
+      <c r="F374">
+        <v>1139.5</v>
+      </c>
+      <c r="G374" s="76">
+        <v>1387.2449999999999</v>
+      </c>
+      <c r="H374">
+        <v>590.4666666666667</v>
+      </c>
+      <c r="I374">
+        <v>74.766666666666666</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A375" t="s">
+        <v>341</v>
+      </c>
+      <c r="B375" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C375" t="s">
+        <v>21</v>
+      </c>
+      <c r="D375" t="s">
+        <v>7</v>
+      </c>
+      <c r="E375" t="s">
+        <v>25</v>
+      </c>
+      <c r="F375">
+        <v>1080.8</v>
+      </c>
+      <c r="G375" s="76">
+        <v>1749.835</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A376" t="s">
+        <v>341</v>
+      </c>
+      <c r="B376" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C376" t="s">
+        <v>21</v>
+      </c>
+      <c r="D376" t="s">
+        <v>7</v>
+      </c>
+      <c r="E376" t="s">
+        <v>26</v>
+      </c>
+      <c r="F376">
+        <v>484.5</v>
+      </c>
+      <c r="G376" s="76">
+        <v>622.29</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A377" t="s">
+        <v>341</v>
+      </c>
+      <c r="B377" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C377" t="s">
+        <v>21</v>
+      </c>
+      <c r="D377" t="s">
+        <v>8</v>
+      </c>
+      <c r="E377" t="s">
+        <v>24</v>
+      </c>
+      <c r="F377">
+        <v>1080.8</v>
+      </c>
+      <c r="G377" s="76">
+        <v>2170.9450000000002</v>
+      </c>
+      <c r="H377">
+        <v>937</v>
+      </c>
+      <c r="I377">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A378" t="s">
+        <v>341</v>
+      </c>
+      <c r="B378" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F378">
+        <v>1696.3</v>
+      </c>
+      <c r="G378" s="76">
+        <v>1698.2149999999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A379" t="s">
+        <v>341</v>
+      </c>
+      <c r="B379" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F379">
+        <v>282.89999999999998</v>
+      </c>
+      <c r="G379" s="76">
+        <v>1926.14</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A380" t="s">
+        <v>341</v>
+      </c>
+      <c r="B380" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C380" t="s">
+        <v>21</v>
+      </c>
+      <c r="D380" t="s">
+        <v>9</v>
+      </c>
+      <c r="E380" t="s">
+        <v>24</v>
+      </c>
+      <c r="F380">
+        <v>2065.1</v>
+      </c>
+      <c r="G380" s="76">
+        <v>1036.385</v>
+      </c>
+      <c r="H380">
+        <v>1092.0999999999999</v>
+      </c>
+      <c r="I380">
+        <v>76.150000000000006</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A381" t="s">
+        <v>341</v>
+      </c>
+      <c r="B381" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C381" t="s">
+        <v>21</v>
+      </c>
+      <c r="D381" t="s">
+        <v>9</v>
+      </c>
+      <c r="E381" t="s">
+        <v>25</v>
+      </c>
+      <c r="F381">
+        <v>271.40000000000003</v>
+      </c>
+      <c r="G381" s="76">
+        <v>285.31</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A382" t="s">
+        <v>341</v>
+      </c>
+      <c r="B382" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C382" t="s">
+        <v>21</v>
+      </c>
+      <c r="D382" t="s">
+        <v>9</v>
+      </c>
+      <c r="E382" t="s">
+        <v>26</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382" s="76">
+        <v>302.07</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A383" t="s">
+        <v>341</v>
+      </c>
+      <c r="B383" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F383">
+        <v>6424.3</v>
+      </c>
+      <c r="G383" s="76">
+        <v>3879.92</v>
+      </c>
+      <c r="H383">
+        <v>2227.7666666666664</v>
+      </c>
+      <c r="I383">
+        <v>57.933333333333337</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A384" t="s">
+        <v>341</v>
+      </c>
+      <c r="B384" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C384" t="s">
+        <v>21</v>
+      </c>
+      <c r="D384" t="s">
+        <v>10</v>
+      </c>
+      <c r="E384" t="s">
+        <v>25</v>
+      </c>
+      <c r="F384">
+        <v>336.79999999999995</v>
+      </c>
+      <c r="G384" s="76">
+        <v>503.18</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A385" t="s">
+        <v>341</v>
+      </c>
+      <c r="B385" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C385" t="s">
+        <v>21</v>
+      </c>
+      <c r="D385" t="s">
+        <v>10</v>
+      </c>
+      <c r="E385" t="s">
+        <v>26</v>
+      </c>
+      <c r="F385">
+        <v>96</v>
+      </c>
+      <c r="G385" s="76">
+        <v>754.03</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A386" t="s">
+        <v>341</v>
+      </c>
+      <c r="B386" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C386" t="s">
+        <v>21</v>
+      </c>
+      <c r="D386" t="s">
+        <v>11</v>
+      </c>
+      <c r="E386" t="s">
+        <v>24</v>
+      </c>
+      <c r="F386">
+        <v>1103.0999999999999</v>
+      </c>
+      <c r="G386" s="76">
+        <v>1085.3499999999999</v>
+      </c>
+      <c r="H386">
+        <v>712.76666666666677</v>
+      </c>
+      <c r="I386">
+        <v>86.366666666666674</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A387" t="s">
+        <v>341</v>
+      </c>
+      <c r="B387" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C387" t="s">
+        <v>21</v>
+      </c>
+      <c r="D387" t="s">
+        <v>11</v>
+      </c>
+      <c r="E387" t="s">
+        <v>25</v>
+      </c>
+      <c r="F387">
+        <v>256.3</v>
+      </c>
+      <c r="G387" s="76">
+        <v>392.39499999999998</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A388" t="s">
+        <v>341</v>
+      </c>
+      <c r="B388" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C388" t="s">
+        <v>21</v>
+      </c>
+      <c r="D388" t="s">
+        <v>11</v>
+      </c>
+      <c r="E388" t="s">
+        <v>26</v>
+      </c>
+      <c r="F388">
+        <v>1038</v>
+      </c>
+      <c r="G388" s="76">
+        <v>1079.6600000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A389" t="s">
+        <v>341</v>
+      </c>
+      <c r="B389" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C389" t="s">
+        <v>21</v>
+      </c>
+      <c r="D389" t="s">
+        <v>12</v>
+      </c>
+      <c r="E389" t="s">
+        <v>24</v>
+      </c>
+      <c r="F389">
+        <v>503.8</v>
+      </c>
+      <c r="G389">
+        <v>1678.05</v>
+      </c>
+      <c r="H389">
+        <v>232.20000000000002</v>
+      </c>
+      <c r="I389">
+        <v>267.66666666666669</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A390" t="s">
+        <v>341</v>
+      </c>
+      <c r="B390" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C390" t="s">
+        <v>21</v>
+      </c>
+      <c r="D390" t="s">
+        <v>12</v>
+      </c>
+      <c r="E390" t="s">
+        <v>25</v>
+      </c>
+      <c r="F390">
+        <v>114.4</v>
+      </c>
+      <c r="G390">
+        <v>589.02</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A391" t="s">
+        <v>341</v>
+      </c>
+      <c r="B391" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C391" t="s">
+        <v>21</v>
+      </c>
+      <c r="D391" t="s">
+        <v>12</v>
+      </c>
+      <c r="E391" t="s">
+        <v>26</v>
+      </c>
+      <c r="F391">
+        <v>184.8</v>
+      </c>
+      <c r="G391">
+        <v>543.96</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A392" t="s">
+        <v>341</v>
+      </c>
+      <c r="B392" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C392" t="s">
+        <v>21</v>
+      </c>
+      <c r="D392" t="s">
+        <v>219</v>
+      </c>
+      <c r="E392" t="s">
+        <v>24</v>
+      </c>
+      <c r="F392">
+        <v>110.60000000000001</v>
+      </c>
+      <c r="G392" s="76">
+        <v>196</v>
+      </c>
+      <c r="H392">
+        <v>76.86666666666666</v>
+      </c>
+      <c r="I392">
+        <v>9.9333333333333318</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A393" t="s">
+        <v>341</v>
+      </c>
+      <c r="B393" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C393" t="s">
+        <v>21</v>
+      </c>
+      <c r="D393" t="s">
+        <v>219</v>
+      </c>
+      <c r="E393" t="s">
+        <v>25</v>
+      </c>
+      <c r="F393">
+        <v>84.8</v>
+      </c>
+      <c r="G393" s="76">
+        <v>259.92500000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A394" t="s">
+        <v>341</v>
+      </c>
+      <c r="B394" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C394" t="s">
+        <v>21</v>
+      </c>
+      <c r="D394" t="s">
+        <v>219</v>
+      </c>
+      <c r="E394" t="s">
+        <v>26</v>
+      </c>
+      <c r="F394">
+        <v>65</v>
+      </c>
+      <c r="G394" s="76">
+        <v>214.625</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A395" t="s">
+        <v>341</v>
+      </c>
+      <c r="B395" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C395" t="s">
+        <v>22</v>
+      </c>
+      <c r="D395" t="s">
+        <v>13</v>
+      </c>
+      <c r="E395" t="s">
+        <v>24</v>
+      </c>
+      <c r="F395">
+        <v>4505</v>
+      </c>
+      <c r="G395">
+        <v>3458.93</v>
+      </c>
+      <c r="H395">
+        <v>2509.1333333333337</v>
+      </c>
+      <c r="I395">
+        <v>237.36666666666667</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A396" t="s">
+        <v>341</v>
+      </c>
+      <c r="B396" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C396" t="s">
+        <v>22</v>
+      </c>
+      <c r="D396" t="s">
+        <v>13</v>
+      </c>
+      <c r="E396" t="s">
+        <v>25</v>
+      </c>
+      <c r="F396">
+        <v>341.6</v>
+      </c>
+      <c r="G396">
+        <v>1238.1600000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A397" t="s">
+        <v>341</v>
+      </c>
+      <c r="B397" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C397" t="s">
+        <v>22</v>
+      </c>
+      <c r="D397" t="s">
+        <v>13</v>
+      </c>
+      <c r="E397" t="s">
+        <v>26</v>
+      </c>
+      <c r="F397">
+        <v>3392.9</v>
+      </c>
+      <c r="G397">
+        <v>3825.83</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A398" t="s">
+        <v>341</v>
+      </c>
+      <c r="B398" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C398" t="s">
+        <v>22</v>
+      </c>
+      <c r="D398" t="s">
+        <v>14</v>
+      </c>
+      <c r="E398" t="s">
+        <v>24</v>
+      </c>
+      <c r="F398">
+        <v>7718.2</v>
+      </c>
+      <c r="G398" s="76">
+        <v>1594.575</v>
+      </c>
+      <c r="H398">
+        <v>4310</v>
+      </c>
+      <c r="I398">
+        <v>254.13333333333333</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A399" t="s">
+        <v>341</v>
+      </c>
+      <c r="B399" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C399" t="s">
+        <v>22</v>
+      </c>
+      <c r="D399" t="s">
+        <v>14</v>
+      </c>
+      <c r="E399" t="s">
+        <v>25</v>
+      </c>
+      <c r="F399">
+        <v>5260.8</v>
+      </c>
+      <c r="G399" s="76">
+        <v>1428.22</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A400" t="s">
+        <v>341</v>
+      </c>
+      <c r="B400" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C400" t="s">
+        <v>22</v>
+      </c>
+      <c r="D400" t="s">
+        <v>14</v>
+      </c>
+      <c r="E400" t="s">
+        <v>26</v>
+      </c>
+      <c r="F400">
+        <v>713.4</v>
+      </c>
+      <c r="G400" s="76">
+        <v>396.65</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A401" t="s">
+        <v>341</v>
+      </c>
+      <c r="B401" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C401" t="s">
+        <v>22</v>
+      </c>
+      <c r="D401" t="s">
+        <v>15</v>
+      </c>
+      <c r="E401" t="s">
+        <v>24</v>
+      </c>
+      <c r="F401">
+        <v>4825.5999999999995</v>
+      </c>
+      <c r="G401" s="76">
+        <v>4750.0600000000004</v>
+      </c>
+      <c r="H401">
+        <v>1822.2333333333329</v>
+      </c>
+      <c r="I401">
+        <v>2107.9666666666667</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A402" t="s">
+        <v>341</v>
+      </c>
+      <c r="B402" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C402" t="s">
+        <v>22</v>
+      </c>
+      <c r="D402" t="s">
+        <v>15</v>
+      </c>
+      <c r="E402" t="s">
+        <v>25</v>
+      </c>
+      <c r="F402">
+        <v>317.60000000000002</v>
+      </c>
+      <c r="G402" s="76">
+        <v>2471.9050000000002</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A403" t="s">
+        <v>341</v>
+      </c>
+      <c r="B403" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C403" t="s">
+        <v>22</v>
+      </c>
+      <c r="D403" t="s">
+        <v>15</v>
+      </c>
+      <c r="E403" t="s">
+        <v>26</v>
+      </c>
+      <c r="F403">
+        <v>1180.7</v>
+      </c>
+      <c r="G403" s="76">
+        <v>1966.86</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A404" t="s">
+        <v>341</v>
+      </c>
+      <c r="B404" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F404">
+        <v>39586.5</v>
+      </c>
+      <c r="G404" s="76">
+        <v>32762.560000000001</v>
+      </c>
+      <c r="H404">
+        <v>13613.5</v>
+      </c>
+      <c r="I404">
+        <v>1478.5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A405" t="s">
+        <v>341</v>
+      </c>
+      <c r="B405" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F405">
+        <v>2836.3</v>
+      </c>
+      <c r="G405" s="76">
+        <v>10890.15</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A406" t="s">
+        <v>341</v>
+      </c>
+      <c r="B406" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F406">
+        <v>2853.2</v>
+      </c>
+      <c r="G406" s="76">
+        <v>4128.22</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A407" t="s">
+        <v>341</v>
+      </c>
+      <c r="B407" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C407" t="s">
+        <v>23</v>
+      </c>
+      <c r="D407" t="s">
+        <v>18</v>
+      </c>
+      <c r="E407" t="s">
+        <v>24</v>
+      </c>
+      <c r="F407">
+        <v>1431</v>
+      </c>
+      <c r="G407" s="76">
+        <v>2705</v>
+      </c>
+      <c r="H407">
+        <v>875.16666666666663</v>
+      </c>
+      <c r="I407">
+        <v>369.76666666666665</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A408" t="s">
+        <v>341</v>
+      </c>
+      <c r="B408" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F408">
+        <v>1219.5</v>
+      </c>
+      <c r="G408" s="76">
+        <v>5588.98</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A409" t="s">
+        <v>341</v>
+      </c>
+      <c r="B409" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F409">
+        <v>1084.3</v>
+      </c>
+      <c r="G409" s="76">
+        <v>1851.22</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A410" t="s">
+        <v>341</v>
+      </c>
+      <c r="B410" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C410" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D410" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E410" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="F410">
+        <v>3286.5</v>
+      </c>
+      <c r="G410" s="76">
+        <v>5133.17</v>
+      </c>
+      <c r="H410">
+        <v>3048.2333333333336</v>
+      </c>
+      <c r="I410">
+        <v>142.16666666666666</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A411" t="s">
+        <v>341</v>
+      </c>
+      <c r="B411" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C411" t="s">
+        <v>23</v>
+      </c>
+      <c r="D411" t="s">
+        <v>19</v>
+      </c>
+      <c r="E411" t="s">
+        <v>25</v>
+      </c>
+      <c r="F411">
+        <v>4077</v>
+      </c>
+      <c r="G411" s="76">
+        <v>8305.17</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A412" t="s">
+        <v>341</v>
+      </c>
+      <c r="B412" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C412" t="s">
+        <v>23</v>
+      </c>
+      <c r="D412" t="s">
+        <v>19</v>
+      </c>
+      <c r="E412" t="s">
+        <v>26</v>
+      </c>
+      <c r="F412">
+        <v>2207.6999999999998</v>
+      </c>
+      <c r="G412" s="76">
+        <v>2877.43</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A413" t="s">
+        <v>341</v>
+      </c>
+      <c r="B413" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C413" t="s">
+        <v>217</v>
+      </c>
+      <c r="D413" t="s">
+        <v>218</v>
+      </c>
+      <c r="E413" t="s">
+        <v>24</v>
+      </c>
+      <c r="F413">
+        <v>2075.1999999999998</v>
+      </c>
+      <c r="G413" s="76">
+        <v>1031.575</v>
+      </c>
+      <c r="H413">
+        <v>3278.1333333333337</v>
+      </c>
+      <c r="I413">
+        <v>3296.2166666666667</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A414" t="s">
+        <v>341</v>
+      </c>
+      <c r="B414" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C414" t="s">
+        <v>217</v>
+      </c>
+      <c r="D414" t="s">
+        <v>218</v>
+      </c>
+      <c r="E414" t="s">
+        <v>25</v>
+      </c>
+      <c r="F414">
+        <v>7664.35</v>
+      </c>
+      <c r="G414" s="76">
+        <v>2140.0625</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A415" t="s">
+        <v>341</v>
+      </c>
+      <c r="B415" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C415" t="s">
+        <v>217</v>
+      </c>
+      <c r="D415" t="s">
+        <v>218</v>
+      </c>
+      <c r="E415" t="s">
+        <v>26</v>
+      </c>
+      <c r="F415">
+        <v>149.1</v>
+      </c>
+      <c r="G415" s="76">
+        <v>887.97500000000002</v>
       </c>
     </row>
   </sheetData>
@@ -13266,17 +15577,17 @@
       <selection sqref="A1:G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="33.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13299,7 +15610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -13322,7 +15633,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -13345,7 +15656,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -13368,7 +15679,7 @@
         <v>127.94</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -13391,7 +15702,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -13414,7 +15725,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -13437,7 +15748,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -13460,7 +15771,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -13483,7 +15794,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -13506,7 +15817,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -13529,7 +15840,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -13552,7 +15863,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -13576,7 +15887,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -13599,7 +15910,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -13622,7 +15933,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -13646,7 +15957,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -13669,7 +15980,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -13692,7 +16003,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -13716,7 +16027,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -13739,7 +16050,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -13762,7 +16073,7 @@
         <v>446.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -13785,7 +16096,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -13808,7 +16119,7 @@
         <v>321.89999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -13819,7 +16130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -13830,7 +16141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -13853,7 +16164,7 @@
         <v>532.1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -13876,7 +16187,7 @@
         <v>377.7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -13903,7 +16214,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -13926,7 +16237,7 @@
         <v>1694.4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -13949,7 +16260,7 @@
         <v>981.8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -13972,7 +16283,7 @@
         <v>382.1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -13995,7 +16306,7 @@
         <v>145.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -14018,7 +16329,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -14041,7 +16352,7 @@
         <v>126.6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -14064,7 +16375,7 @@
         <v>478.7</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -14087,7 +16398,7 @@
         <v>121.9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -14110,7 +16421,7 @@
         <v>299.7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -14133,7 +16444,7 @@
         <v>180.1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -14156,7 +16467,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -14179,7 +16490,7 @@
         <v>321.3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -14190,7 +16501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -14201,7 +16512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -14225,15 +16536,15 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" customWidth="1"/>
+    <col min="7" max="7" width="33.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14256,7 +16567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -14279,7 +16590,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -14302,7 +16613,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -14325,7 +16636,7 @@
         <v>442.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -14348,7 +16659,7 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -14371,7 +16682,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -14394,7 +16705,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -14417,7 +16728,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -14440,7 +16751,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -14463,7 +16774,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -14486,7 +16797,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -14509,7 +16820,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -14532,7 +16843,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -14555,7 +16866,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -14578,7 +16889,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -14601,7 +16912,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -14624,7 +16935,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -14647,7 +16958,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -14670,7 +16981,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -14693,7 +17004,7 @@
         <v>320.7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -14716,7 +17027,7 @@
         <v>91.75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -14739,7 +17050,7 @@
         <v>164.7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -14762,7 +17073,7 @@
         <v>208.7</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -14773,7 +17084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -14784,7 +17095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -14807,7 +17118,7 @@
         <v>591.1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -14830,7 +17141,7 @@
         <v>814.75</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -14853,7 +17164,7 @@
         <v>261.39999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -14876,7 +17187,7 @@
         <v>820.6</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -14899,7 +17210,7 @@
         <v>393.2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -14922,7 +17233,7 @@
         <v>137.6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -14945,7 +17256,7 @@
         <v>188.6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -14968,7 +17279,7 @@
         <v>361.7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -14991,7 +17302,7 @@
         <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -15014,7 +17325,7 @@
         <v>381.7</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -15037,7 +17348,7 @@
         <v>195.9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -15060,7 +17371,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -15083,7 +17394,7 @@
         <v>133.19999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -15106,7 +17417,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -15129,7 +17440,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -15140,7 +17451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -15151,7 +17462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -15175,16 +17486,16 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15207,7 +17518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -15230,7 +17541,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -15253,7 +17564,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -15276,7 +17587,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -15299,7 +17610,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -15322,7 +17633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -15345,7 +17656,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -15368,7 +17679,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -15391,7 +17702,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -15414,7 +17725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -15437,7 +17748,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -15460,7 +17771,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -15483,7 +17794,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -15506,7 +17817,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -15529,7 +17840,7 @@
         <v>74.099999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -15552,7 +17863,7 @@
         <v>165.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -15575,7 +17886,7 @@
         <v>221.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -15598,7 +17909,7 @@
         <v>125.2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -15621,7 +17932,7 @@
         <v>111.6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -15644,7 +17955,7 @@
         <v>243.2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -15667,7 +17978,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -15690,7 +18001,7 @@
         <v>107.1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -15713,7 +18024,7 @@
         <v>160.80000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -15724,7 +18035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -15735,7 +18046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -15758,7 +18069,7 @@
         <v>442.7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -15781,7 +18092,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -15804,7 +18115,7 @@
         <v>2208.8000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -15827,7 +18138,7 @@
         <v>1415.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -15850,7 +18161,7 @@
         <v>198.7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -15873,7 +18184,7 @@
         <v>132.9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -15884,7 +18195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -15907,7 +18218,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -15930,7 +18241,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -15953,7 +18264,7 @@
         <v>296.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -15976,7 +18287,7 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -15999,7 +18310,7 @@
         <v>246.6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -16022,7 +18333,7 @@
         <v>152.1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -16045,7 +18356,7 @@
         <v>769.8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -16068,7 +18379,7 @@
         <v>138.30000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -16079,7 +18390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -16090,7 +18401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -16114,16 +18425,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16146,7 +18457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -16169,7 +18480,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -16192,7 +18503,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -16215,7 +18526,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -16238,7 +18549,7 @@
         <v>110.35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -16261,7 +18572,7 @@
         <v>146.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -16284,7 +18595,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -16307,7 +18618,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -16330,7 +18641,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -16353,7 +18664,7 @@
         <v>107.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -16376,7 +18687,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -16399,7 +18710,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -16423,7 +18734,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -16446,7 +18757,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -16469,7 +18780,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -16493,7 +18804,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -16516,7 +18827,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -16539,7 +18850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -16562,7 +18873,7 @@
         <v>94.7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -16585,7 +18896,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -16608,7 +18919,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -16631,7 +18942,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -16654,7 +18965,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -16665,7 +18976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -16676,7 +18987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -16699,7 +19010,7 @@
         <v>267.10000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -16722,7 +19033,7 @@
         <v>432.1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -16745,7 +19056,7 @@
         <v>266.39999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -16768,7 +19079,7 @@
         <v>1298.7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -16791,7 +19102,7 @@
         <v>436.8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -16814,7 +19125,7 @@
         <v>205.3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -16837,7 +19148,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -16860,7 +19171,7 @@
         <v>221.8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -16883,7 +19194,7 @@
         <v>386.8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -16906,7 +19217,7 @@
         <v>145.30000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -16927,7 +19238,7 @@
         <v>110.3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -16950,7 +19261,7 @@
         <v>328.6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -16973,7 +19284,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -16994,7 +19305,7 @@
         <v>328.8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -17017,7 +19328,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -17028,7 +19339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -17039,7 +19350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -17063,15 +19374,15 @@
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" customWidth="1"/>
+    <col min="7" max="7" width="33.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17094,7 +19405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -17117,7 +19428,7 @@
         <v>144.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -17140,7 +19451,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -17163,7 +19474,7 @@
         <v>267.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -17186,7 +19497,7 @@
         <v>386.8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -17209,7 +19520,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -17232,7 +19543,7 @@
         <v>274.2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -17255,7 +19566,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -17278,7 +19589,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -17301,7 +19612,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -17324,7 +19635,7 @@
         <v>522.1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -17347,7 +19658,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -17370,7 +19681,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -17393,7 +19704,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -17416,7 +19727,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -17439,7 +19750,7 @@
         <v>216.2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -17462,7 +19773,7 @@
         <v>170.3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -17485,7 +19796,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -17508,7 +19819,7 @@
         <v>188.2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -17531,7 +19842,7 @@
         <v>329.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -17554,7 +19865,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -17577,7 +19888,7 @@
         <v>175.4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -17600,7 +19911,7 @@
         <v>240.3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -17611,7 +19922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -17622,7 +19933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -17645,7 +19956,7 @@
         <v>615.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -17668,7 +19979,7 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -17691,7 +20002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -17714,7 +20025,7 @@
         <v>5822.1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -17737,7 +20048,7 @@
         <v>292.10000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -17760,7 +20071,7 @@
         <v>184.3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -17771,7 +20082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -17782,7 +20093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -17793,7 +20104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -17816,7 +20127,7 @@
         <v>2008.6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -17839,7 +20150,7 @@
         <v>131.19999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -17862,7 +20173,7 @@
         <v>353.5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -17885,7 +20196,7 @@
         <v>423.9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -17908,7 +20219,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -17931,7 +20242,7 @@
         <v>178.1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -17954,7 +20265,7 @@
         <v>406.3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -17977,7 +20288,7 @@
         <v>273.10000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -18013,17 +20324,17 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="56.5703125" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
+    <col min="7" max="7" width="56.54296875" customWidth="1"/>
+    <col min="8" max="8" width="33.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
@@ -18049,7 +20360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>256</v>
       </c>
@@ -18075,7 +20386,7 @@
         <v>45.75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>256</v>
       </c>
@@ -18101,7 +20412,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>256</v>
       </c>
@@ -18127,7 +20438,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>256</v>
       </c>
@@ -18153,7 +20464,7 @@
         <v>5197</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -18179,7 +20490,7 @@
         <v>932.3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>256</v>
       </c>
@@ -18205,7 +20516,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>256</v>
       </c>
@@ -18231,7 +20542,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>256</v>
       </c>
@@ -18257,7 +20568,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>256</v>
       </c>
@@ -18271,7 +20582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -18297,7 +20608,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>256</v>
       </c>
@@ -18323,7 +20634,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>256</v>
       </c>
@@ -18349,7 +20660,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>256</v>
       </c>
@@ -18375,7 +20686,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>256</v>
       </c>
@@ -18401,7 +20712,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>256</v>
       </c>
@@ -18427,7 +20738,7 @@
         <v>344.6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>256</v>
       </c>
@@ -18453,7 +20764,7 @@
         <v>180.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -18479,7 +20790,7 @@
         <v>148.80000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>256</v>
       </c>
@@ -18505,7 +20816,7 @@
         <v>225.9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>256</v>
       </c>
@@ -18531,7 +20842,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>256</v>
       </c>
@@ -18557,7 +20868,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>256</v>
       </c>
@@ -18583,7 +20894,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>256</v>
       </c>
@@ -18609,7 +20920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>256</v>
       </c>
@@ -18635,7 +20946,7 @@
         <v>151.4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>256</v>
       </c>
@@ -18658,7 +20969,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>256</v>
       </c>
@@ -18684,7 +20995,7 @@
         <v>304.3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>256</v>
       </c>
@@ -18698,7 +21009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>256</v>
       </c>
@@ -18712,7 +21023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>256</v>
       </c>
@@ -18738,7 +21049,7 @@
         <v>681.4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>256</v>
       </c>
@@ -18764,7 +21075,7 @@
         <v>704.8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>256</v>
       </c>
@@ -18790,7 +21101,7 @@
         <v>397.4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>256</v>
       </c>
@@ -18816,7 +21127,7 @@
         <v>2249.6999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>256</v>
       </c>
@@ -18842,7 +21153,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>256</v>
       </c>
@@ -18868,7 +21179,7 @@
         <v>437.7</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>256</v>
       </c>
@@ -18894,7 +21205,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>256</v>
       </c>
@@ -18920,7 +21231,7 @@
         <v>479.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>256</v>
       </c>
@@ -18946,7 +21257,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -18972,7 +21283,7 @@
         <v>234.1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -18998,7 +21309,7 @@
         <v>536.6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>256</v>
       </c>
@@ -19024,7 +21335,7 @@
         <v>219.4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>256</v>
       </c>
@@ -19050,7 +21361,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>256</v>
       </c>
@@ -19076,7 +21387,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>256</v>
       </c>
@@ -19111,22 +21422,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A655A1-E6E1-43E0-A23B-CE9FD65986AA}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="35.453125" customWidth="1"/>
+    <col min="8" max="8" width="34.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
@@ -19155,7 +21466,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>257</v>
       </c>
@@ -19185,7 +21496,7 @@
         <v>1121.2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>257</v>
       </c>
@@ -19215,7 +21526,7 @@
         <v>921.75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>257</v>
       </c>
@@ -19245,7 +21556,7 @@
         <v>255.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>257</v>
       </c>
@@ -19275,7 +21586,7 @@
         <v>1624.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>257</v>
       </c>
@@ -19305,7 +21616,7 @@
         <v>2402.2000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>257</v>
       </c>
@@ -19335,7 +21646,7 @@
         <v>2470.3000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -19365,7 +21676,7 @@
         <v>358.8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -19395,7 +21706,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -19413,7 +21724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>257</v>
       </c>
@@ -19443,7 +21754,7 @@
         <v>2385.6999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>257</v>
       </c>
@@ -19473,7 +21784,7 @@
         <v>251.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>257</v>
       </c>
@@ -19503,7 +21814,7 @@
         <v>304.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>257</v>
       </c>
@@ -19533,7 +21844,7 @@
         <v>995.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>257</v>
       </c>
@@ -19563,7 +21874,7 @@
         <v>270.2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>257</v>
       </c>
@@ -19593,7 +21904,7 @@
         <v>1153.9000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>257</v>
       </c>
@@ -19623,7 +21934,7 @@
         <v>1106.3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>257</v>
       </c>
@@ -19653,7 +21964,7 @@
         <v>174.70000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>257</v>
       </c>
@@ -19683,7 +21994,7 @@
         <v>507.7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>257</v>
       </c>
@@ -19713,7 +22024,7 @@
         <v>429.8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>257</v>
       </c>
@@ -19743,7 +22054,7 @@
         <v>637.20000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>257</v>
       </c>
@@ -19773,7 +22084,7 @@
         <v>399.59999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>257</v>
       </c>
@@ -19803,7 +22114,7 @@
         <v>1578.8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>257</v>
       </c>
@@ -19833,7 +22144,7 @@
         <v>1355.8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>257</v>
       </c>
@@ -19863,7 +22174,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>257</v>
       </c>
@@ -19893,7 +22204,7 @@
         <v>6324.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>257</v>
       </c>
@@ -19923,7 +22234,7 @@
         <v>2437.6999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>257</v>
       </c>
@@ -19953,7 +22264,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>257</v>
       </c>
@@ -19983,7 +22294,7 @@
         <v>3991.9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>257</v>
       </c>
@@ -20013,7 +22324,7 @@
         <v>268.89999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>257</v>
       </c>
@@ -20043,7 +22354,7 @@
         <v>1288.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>257</v>
       </c>
@@ -20073,7 +22384,7 @@
         <v>20541.8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>257</v>
       </c>
@@ -20103,7 +22414,7 @@
         <v>11759.6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>257</v>
       </c>
@@ -20133,7 +22444,7 @@
         <v>3517.8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>257</v>
       </c>
@@ -20163,7 +22474,7 @@
         <v>2833.6000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>257</v>
       </c>
@@ -20193,7 +22504,7 @@
         <v>12477.4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>257</v>
       </c>
@@ -20223,7 +22534,7 @@
         <v>2873.9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="74" t="s">
         <v>257</v>
       </c>
@@ -20253,7 +22564,7 @@
         <v>13441</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>257</v>
       </c>
@@ -20271,7 +22582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>257</v>
       </c>
@@ -20301,7 +22612,7 @@
         <v>2751.9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>257</v>
       </c>
@@ -20331,7 +22642,7 @@
         <v>428.29999999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>257</v>
       </c>
@@ -20361,7 +22672,7 @@
         <v>330.8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>257</v>
       </c>
@@ -20401,21 +22712,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F158CD29-099B-43CF-B265-D3A66306176E}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" customWidth="1"/>
+    <col min="7" max="7" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20442,7 +22753,7 @@
       </c>
       <c r="I1" s="73"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -20469,7 +22780,7 @@
         <v>755.2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -20496,7 +22807,7 @@
         <v>389.7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -20523,7 +22834,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -20550,7 +22861,7 @@
         <v>2062.1999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -20577,7 +22888,7 @@
         <v>3933.7999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -20604,7 +22915,7 @@
         <v>3543.8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -20631,7 +22942,7 @@
         <v>303.8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -20658,7 +22969,7 @@
         <v>245.8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -20673,7 +22984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -20700,7 +23011,7 @@
         <v>3893</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -20727,7 +23038,7 @@
         <v>1505.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -20754,7 +23065,7 @@
         <v>382.59999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -20781,7 +23092,7 @@
         <v>975.4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -20808,7 +23119,7 @@
         <v>628.5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -20835,7 +23146,7 @@
         <v>1122.0999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -20862,7 +23173,7 @@
         <v>930.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -20889,7 +23200,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -20916,7 +23227,7 @@
         <v>227.7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -20943,7 +23254,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -20970,7 +23281,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -20997,7 +23308,7 @@
         <v>136.9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -21024,7 +23335,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -21051,7 +23362,7 @@
         <v>498.6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -21078,7 +23389,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -21105,7 +23416,7 @@
         <v>1643.3000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -21132,7 +23443,7 @@
         <v>1767.1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -21159,7 +23470,7 @@
         <v>1133.0999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -21186,7 +23497,7 @@
         <v>2275.8000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -21213,7 +23524,7 @@
         <v>1638.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -21240,7 +23551,7 @@
         <v>1404.2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -21267,7 +23578,7 @@
         <v>20099.199999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -21294,7 +23605,7 @@
         <v>6558.7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -21321,7 +23632,7 @@
         <v>3282.7</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -21348,7 +23659,7 @@
         <v>2375.1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
@@ -21375,7 +23686,7 @@
         <v>4590.3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -21402,7 +23713,7 @@
         <v>1610.9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="74" t="s">
         <v>23</v>
       </c>
@@ -21429,7 +23740,7 @@
         <v>7010.4000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -21456,7 +23767,7 @@
         <v>3349.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -21483,7 +23794,7 @@
         <v>5024.5999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>217</v>
       </c>
@@ -21510,7 +23821,7 @@
         <v>1119.1000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>217</v>
       </c>
@@ -21537,7 +23848,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>217</v>
       </c>

--- a/Monitoreo_de_candidatos_largo.xlsx
+++ b/Monitoreo_de_candidatos_largo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://controlriskscan-my.sharepoint.com/personal/angelica_mendez_controlrisks_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2156" documentId="8_{194206F6-F826-48E6-9C50-0079A5A6D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78341035-7D1A-4B4C-83B6-6BF3FCBBF545}"/>
+  <xr:revisionPtr revIDLastSave="2393" documentId="8_{194206F6-F826-48E6-9C50-0079A5A6D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78C78326-264C-4455-93A8-24025D9D4BAE}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="660" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="11" xr2:uid="{3D252F8C-4335-4931-923B-6975DF4F4743}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="12" xr2:uid="{3D252F8C-4335-4931-923B-6975DF4F4743}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 1" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,22 @@
     <sheet name="Semana 9" sheetId="10" r:id="rId9"/>
     <sheet name="Semana 10" sheetId="11" r:id="rId10"/>
     <sheet name="Semana 11" sheetId="12" r:id="rId11"/>
-    <sheet name="Promedios totales candidato" sheetId="8" r:id="rId12"/>
+    <sheet name="Semana 12" sheetId="13" r:id="rId12"/>
+    <sheet name="Promedios totales candidato" sheetId="8" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Promedios totales candidato'!$B$1:$I$415</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Semana 1'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Semana 10'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Semana 11'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Promedios totales candidato'!$B$1:$I$415</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Semana 1'!$A$1:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Semana 10'!$A$1:$H$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Semana 11'!$A$1:$G$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Semana 2'!$A$1:$K$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Semana 3'!$A$1:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Semana 4'!$A$1:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Semana 5'!$A$1:$H$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Semana 6'!$A$1:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Semana 7'!$A$1:$H$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Semana 8'!$A$1:$I$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Semana 9'!$A$1:$I$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4223" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="408">
   <si>
     <t>Espectro</t>
   </si>
@@ -1170,6 +1178,114 @@
   </si>
   <si>
     <t>Nov 19 - Nov 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicación de campaña vendiéndose como la opción de centro para evitar los extremos. </t>
+  </si>
+  <si>
+    <t>Publicación de campaña bebiendo capuchino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicación de campaña apelando a la unidad para candidatura de centro que derrote a los extremos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicación de campaña pro-inversión privada. </t>
+  </si>
+  <si>
+    <t>Publicación de campaña en contra de Petro.</t>
+  </si>
+  <si>
+    <t>Publicación de campaña sobre su partido</t>
+  </si>
+  <si>
+    <t>Respaldo a su partido por la expulsión de Migul Uribe</t>
+  </si>
+  <si>
+    <t>Publicación de campaña respecto a su expulsión del centro democrático</t>
+  </si>
+  <si>
+    <t>Publicación de campaña respecto a la violencia en contra de las mujeres</t>
+  </si>
+  <si>
+    <t>Publicación respecto a los resultados de la encuesta de Invamer</t>
+  </si>
+  <si>
+    <t>Publicación en contra de Guerra</t>
+  </si>
+  <si>
+    <t>Publicación respecto a la apertura de condiciones bancarias para pequeños comerciantes informales</t>
+  </si>
+  <si>
+    <t>Publicación con un miembro de su familia</t>
+  </si>
+  <si>
+    <t>Publicación de campaña buscando la unidad de centro con los resultados de la encuesta de invamer</t>
+  </si>
+  <si>
+    <t>Publicación de campaña en contra del centro</t>
+  </si>
+  <si>
+    <t>Publicación de campaña en contra de Abelardo de la Espriella por los resultados de las encuestas</t>
+  </si>
+  <si>
+    <t>Publicación respecto al aumento del salario mínimo en el país</t>
+  </si>
+  <si>
+    <t>Publicación de campaña en Atlántico</t>
+  </si>
+  <si>
+    <t>Retwit burlándose de los candidatos independientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicación en contra de Petro por el escándalo con Calarcá. </t>
+  </si>
+  <si>
+    <t>Publicación de campaña en contra de la paz total de Petro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicación en contra de Iván Cepeda por no asistir a foros con empresarios. </t>
+  </si>
+  <si>
+    <t>Publicación de campaña buscando la unidad</t>
+  </si>
+  <si>
+    <t>Retwit celebrando thanksgiving</t>
+  </si>
+  <si>
+    <t>Publicación en contra de su expulsión del CD</t>
+  </si>
+  <si>
+    <t>Publicación de campaña en contra de Cepeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicación llamando a la unidad de la derecha. </t>
+  </si>
+  <si>
+    <t>Publicación de campaña en contra del CNE</t>
+  </si>
+  <si>
+    <t>Publicación respecto a la inscripción de candidatos en las listas en diciembre</t>
+  </si>
+  <si>
+    <t>Retwit de Petro</t>
+  </si>
+  <si>
+    <t>Publicación respecto a unificación de varios sectores de centro en las listas para Senado para las elecciones de 2026</t>
+  </si>
+  <si>
+    <t>Nov 26 - Dec 3</t>
+  </si>
+  <si>
+    <t>Nov 26 - Dec 8</t>
+  </si>
+  <si>
+    <t>Nov 26 - Dec 9</t>
+  </si>
+  <si>
+    <t>Nov 26 - Dec 10</t>
+  </si>
+  <si>
+    <t>Semana 12</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1947,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,7 +2889,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{4A6C6FB0-1451-4C8C-8CCD-E3D3242616A7}"/>
+  <autoFilter ref="A1:G43" xr:uid="{4A6C6FB0-1451-4C8C-8CCD-E3D3242616A7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2782,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58C660C-3D0A-4A88-8655-C4047259147E}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3942,7 +4058,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{C58C660C-3D0A-4A88-8655-C4047259147E}"/>
+  <autoFilter ref="A1:H42" xr:uid="{C58C660C-3D0A-4A88-8655-C4047259147E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3951,7 +4067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CCBC74-D579-4A91-ACD5-7AA6E0C14B64}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G43"/>
     </sheetView>
   </sheetViews>
@@ -3961,7 +4077,7 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="125.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4990,21 +5106,1068 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{30CCBC74-D579-4A91-ACD5-7AA6E0C14B64}"/>
+  <autoFilter ref="A1:G42" xr:uid="{30CCBC74-D579-4A91-ACD5-7AA6E0C14B64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4148BF7-63E1-415D-8ED7-25B2BDEED5B6}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>942.6</v>
+      </c>
+      <c r="D2">
+        <v>2302</v>
+      </c>
+      <c r="E2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2">
+        <v>146.5</v>
+      </c>
+      <c r="G2">
+        <f>SUBTOTAL(9,C2,F2)</f>
+        <v>1089.0999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>544.5</v>
+      </c>
+      <c r="D3">
+        <v>1733</v>
+      </c>
+      <c r="E3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3">
+        <v>42.5</v>
+      </c>
+      <c r="G3">
+        <f>SUBTOTAL(9,C3,F3)</f>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>469.3</v>
+      </c>
+      <c r="D4">
+        <v>1445</v>
+      </c>
+      <c r="E4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4">
+        <v>101.6</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G43" si="0">SUBTOTAL(9,C4,F4)</f>
+        <v>570.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>694.4</v>
+      </c>
+      <c r="D5">
+        <v>1568</v>
+      </c>
+      <c r="E5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F5">
+        <v>111</v>
+      </c>
+      <c r="G5">
+        <f>SUBTOTAL(9,C5,F5)</f>
+        <v>805.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>587.1</v>
+      </c>
+      <c r="D6">
+        <v>2580</v>
+      </c>
+      <c r="E6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6">
+        <v>43.8</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>630.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="D7">
+        <v>1384</v>
+      </c>
+      <c r="E7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7">
+        <v>70.3</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>208.60000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>237.7</v>
+      </c>
+      <c r="D8">
+        <v>317</v>
+      </c>
+      <c r="E8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>245.89999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>193.1</v>
+      </c>
+      <c r="D9">
+        <v>1153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F9">
+        <v>10.3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>203.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>188</v>
+      </c>
+      <c r="D10">
+        <v>2446</v>
+      </c>
+      <c r="E10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10">
+        <v>14.3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>202.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>4320.8999999999996</v>
+      </c>
+      <c r="D11">
+        <v>23563</v>
+      </c>
+      <c r="E11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11">
+        <v>114.9</v>
+      </c>
+      <c r="G11" s="77">
+        <f t="shared" si="0"/>
+        <v>4435.7999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>688</v>
+      </c>
+      <c r="D12">
+        <v>2174</v>
+      </c>
+      <c r="E12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>97.7</v>
+      </c>
+      <c r="D13">
+        <v>995</v>
+      </c>
+      <c r="E13" t="s">
+        <v>391</v>
+      </c>
+      <c r="F13">
+        <v>17.3</v>
+      </c>
+      <c r="G13">
+        <f>SUBTOTAL(9,C13,F13)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>789.6</v>
+      </c>
+      <c r="D14">
+        <v>2111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>375</v>
+      </c>
+      <c r="F14">
+        <v>52.2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>841.80000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>394.6</v>
+      </c>
+      <c r="D15">
+        <v>741</v>
+      </c>
+      <c r="E15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15">
+        <v>22.8</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>417.40000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>461.3</v>
+      </c>
+      <c r="D16">
+        <v>2407</v>
+      </c>
+      <c r="E16" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>595.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>543.70000000000005</v>
+      </c>
+      <c r="D17">
+        <v>1854</v>
+      </c>
+      <c r="E17" t="s">
+        <v>376</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>643.70000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="D18">
+        <v>343</v>
+      </c>
+      <c r="E18" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18">
+        <v>32.5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>175.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>141.5</v>
+      </c>
+      <c r="D19">
+        <v>957</v>
+      </c>
+      <c r="E19" t="s">
+        <v>393</v>
+      </c>
+      <c r="F19">
+        <v>103.7</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>245.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>54.1</v>
+      </c>
+      <c r="D20">
+        <v>152</v>
+      </c>
+      <c r="E20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20">
+        <v>4.2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>58.300000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>35.5</v>
+      </c>
+      <c r="D21">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>402</v>
+      </c>
+      <c r="F21">
+        <v>1.5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>49.6</v>
+      </c>
+      <c r="D22">
+        <v>858</v>
+      </c>
+      <c r="E22" t="s">
+        <v>394</v>
+      </c>
+      <c r="F22">
+        <v>19.3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>1198.3</v>
+      </c>
+      <c r="D23">
+        <v>9882</v>
+      </c>
+      <c r="E23" t="s">
+        <v>378</v>
+      </c>
+      <c r="F23">
+        <v>132</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1330.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>756.8</v>
+      </c>
+      <c r="D24">
+        <v>2636</v>
+      </c>
+      <c r="E24" t="s">
+        <v>386</v>
+      </c>
+      <c r="F24">
+        <v>107.5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>864.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>4660.3999999999996</v>
+      </c>
+      <c r="D25">
+        <v>288481</v>
+      </c>
+      <c r="E25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F25">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>4921.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1678.3</v>
+      </c>
+      <c r="D26">
+        <v>4385</v>
+      </c>
+      <c r="E26" t="s">
+        <v>379</v>
+      </c>
+      <c r="F26">
+        <v>163.1</v>
+      </c>
+      <c r="G26">
+        <f>SUBTOTAL(9,C26,F26)</f>
+        <v>1841.3999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1163.4000000000001</v>
+      </c>
+      <c r="D27">
+        <v>4355</v>
+      </c>
+      <c r="E27" t="s">
+        <v>379</v>
+      </c>
+      <c r="F27">
+        <v>105.8</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1269.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>936.8</v>
+      </c>
+      <c r="D28">
+        <v>7844</v>
+      </c>
+      <c r="E28" t="s">
+        <v>396</v>
+      </c>
+      <c r="F28">
+        <v>147.1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1083.8999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>1631.7</v>
+      </c>
+      <c r="D29">
+        <v>12410</v>
+      </c>
+      <c r="E29" t="s">
+        <v>380</v>
+      </c>
+      <c r="F29">
+        <v>677.7</v>
+      </c>
+      <c r="G29" s="36">
+        <f t="shared" si="0"/>
+        <v>2309.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>2741.8</v>
+      </c>
+      <c r="D30">
+        <v>12600</v>
+      </c>
+      <c r="E30" t="s">
+        <v>387</v>
+      </c>
+      <c r="F30">
+        <v>752.6</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>3494.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>1053.0999999999999</v>
+      </c>
+      <c r="D31">
+        <v>3994</v>
+      </c>
+      <c r="E31" t="s">
+        <v>397</v>
+      </c>
+      <c r="F31">
+        <v>636.6</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>1689.6999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>11345.6</v>
+      </c>
+      <c r="D32">
+        <v>42494</v>
+      </c>
+      <c r="E32" t="s">
+        <v>381</v>
+      </c>
+      <c r="F32">
+        <v>855.8</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>12201.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>3623.8</v>
+      </c>
+      <c r="D33">
+        <v>19100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>381</v>
+      </c>
+      <c r="F33">
+        <v>350</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>3973.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>2898.1</v>
+      </c>
+      <c r="D34">
+        <v>9172</v>
+      </c>
+      <c r="E34" t="s">
+        <v>398</v>
+      </c>
+      <c r="F34">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>3056.2999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>2026.6</v>
+      </c>
+      <c r="D35">
+        <v>5260</v>
+      </c>
+      <c r="E35" t="s">
+        <v>382</v>
+      </c>
+      <c r="F35">
+        <v>486.8</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>2513.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>3838.2</v>
+      </c>
+      <c r="D36">
+        <v>13400</v>
+      </c>
+      <c r="E36" t="s">
+        <v>382</v>
+      </c>
+      <c r="F36">
+        <v>328.2</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>4166.3999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>1281.4000000000001</v>
+      </c>
+      <c r="D37">
+        <v>4889</v>
+      </c>
+      <c r="E37" t="s">
+        <v>399</v>
+      </c>
+      <c r="F37">
+        <v>201</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>1482.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>4253.6000000000004</v>
+      </c>
+      <c r="D38">
+        <v>10773</v>
+      </c>
+      <c r="E38" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38">
+        <v>220</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>4473.6000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>20700</v>
+      </c>
+      <c r="D39">
+        <v>20700</v>
+      </c>
+      <c r="E39" t="s">
+        <v>326</v>
+      </c>
+      <c r="F39">
+        <v>1053</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>21753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>3718</v>
+      </c>
+      <c r="D40">
+        <v>11612</v>
+      </c>
+      <c r="E40" t="s">
+        <v>400</v>
+      </c>
+      <c r="F40">
+        <v>279.89999999999998</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>3997.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>3697.7</v>
+      </c>
+      <c r="D41">
+        <v>6150</v>
+      </c>
+      <c r="E41" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41">
+        <v>10.4</v>
+      </c>
+      <c r="G41" s="78">
+        <f t="shared" si="0"/>
+        <v>3708.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>10896.9</v>
+      </c>
+      <c r="D42">
+        <v>50300</v>
+      </c>
+      <c r="E42" t="s">
+        <v>388</v>
+      </c>
+      <c r="F42">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G42" s="78">
+        <f t="shared" si="0"/>
+        <v>10905.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <v>408.2</v>
+      </c>
+      <c r="D43">
+        <v>10993</v>
+      </c>
+      <c r="E43" t="s">
+        <v>401</v>
+      </c>
+      <c r="F43">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="G43" s="78">
+        <f t="shared" si="0"/>
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6FA629-4877-42B1-A680-1262F55C3057}">
-  <dimension ref="A1:I457"/>
+  <dimension ref="A1:I499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G457" sqref="G457"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L462" sqref="L462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
@@ -17754,6 +18917,1224 @@
       </c>
       <c r="G457">
         <v>826.64090909090908</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>407</v>
+      </c>
+      <c r="B458" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C458" t="s">
+        <v>21</v>
+      </c>
+      <c r="D458" t="s">
+        <v>7</v>
+      </c>
+      <c r="E458" t="s">
+        <v>24</v>
+      </c>
+      <c r="F458">
+        <v>1089.0999999999999</v>
+      </c>
+      <c r="G458">
+        <v>1330.1708333333333</v>
+      </c>
+      <c r="H458">
+        <v>613.81666666666695</v>
+      </c>
+      <c r="I458">
+        <v>749.65555555555557</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>407</v>
+      </c>
+      <c r="B459" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C459" t="s">
+        <v>21</v>
+      </c>
+      <c r="D459" t="s">
+        <v>7</v>
+      </c>
+      <c r="E459" t="s">
+        <v>25</v>
+      </c>
+      <c r="F459">
+        <v>587</v>
+      </c>
+      <c r="G459">
+        <v>1600.8208333333332</v>
+      </c>
+      <c r="H459">
+        <v>0</v>
+      </c>
+      <c r="I459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>407</v>
+      </c>
+      <c r="B460" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C460" t="s">
+        <v>21</v>
+      </c>
+      <c r="D460" t="s">
+        <v>7</v>
+      </c>
+      <c r="E460" t="s">
+        <v>26</v>
+      </c>
+      <c r="F460">
+        <v>570.9</v>
+      </c>
+      <c r="G460">
+        <v>604.18333333333328</v>
+      </c>
+      <c r="H460">
+        <v>0</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>407</v>
+      </c>
+      <c r="B461" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C461" t="s">
+        <v>21</v>
+      </c>
+      <c r="D461" t="s">
+        <v>8</v>
+      </c>
+      <c r="E461" t="s">
+        <v>24</v>
+      </c>
+      <c r="F461">
+        <v>805.4</v>
+      </c>
+      <c r="G461">
+        <v>1951.6708333333338</v>
+      </c>
+      <c r="H461">
+        <v>903.8555555555555</v>
+      </c>
+      <c r="I461">
+        <v>925.66944444444437</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>407</v>
+      </c>
+      <c r="B462" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F462">
+        <v>630.9</v>
+      </c>
+      <c r="G462">
+        <v>1632.5625</v>
+      </c>
+      <c r="H462">
+        <v>0</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>407</v>
+      </c>
+      <c r="B463" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F463">
+        <v>208.60000000000002</v>
+      </c>
+      <c r="G463">
+        <v>1660.1333333333332</v>
+      </c>
+      <c r="H463">
+        <v>0</v>
+      </c>
+      <c r="I463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>407</v>
+      </c>
+      <c r="B464" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="C464" t="s">
+        <v>21</v>
+      </c>
+      <c r="D464" t="s">
+        <v>9</v>
+      </c>
+      <c r="E464" t="s">
+        <v>24</v>
+      </c>
+      <c r="F464">
+        <v>245.89999999999998</v>
+      </c>
+      <c r="G464">
+        <v>916.86250000000007</v>
+      </c>
+      <c r="H464">
+        <v>959.4222222222221</v>
+      </c>
+      <c r="I464">
+        <v>354.56111111111107</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>407</v>
+      </c>
+      <c r="B465" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="C465" t="s">
+        <v>21</v>
+      </c>
+      <c r="D465" t="s">
+        <v>9</v>
+      </c>
+      <c r="E465" t="s">
+        <v>25</v>
+      </c>
+      <c r="F465">
+        <v>203.4</v>
+      </c>
+      <c r="G465">
+        <v>289.34166666666664</v>
+      </c>
+      <c r="H465">
+        <v>0</v>
+      </c>
+      <c r="I465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>407</v>
+      </c>
+      <c r="B466" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C466" t="s">
+        <v>21</v>
+      </c>
+      <c r="D466" t="s">
+        <v>9</v>
+      </c>
+      <c r="E466" t="s">
+        <v>26</v>
+      </c>
+      <c r="F466">
+        <v>202.3</v>
+      </c>
+      <c r="G466">
+        <v>268.58333333333331</v>
+      </c>
+      <c r="H466">
+        <v>0</v>
+      </c>
+      <c r="I466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>407</v>
+      </c>
+      <c r="B467" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F467">
+        <v>4435.7999999999993</v>
+      </c>
+      <c r="G467">
+        <v>4040.8333333333335</v>
+      </c>
+      <c r="H467">
+        <v>2238.7888888888888</v>
+      </c>
+      <c r="I467">
+        <v>2649.1666666666665</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>407</v>
+      </c>
+      <c r="B468" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C468" t="s">
+        <v>21</v>
+      </c>
+      <c r="D468" t="s">
+        <v>10</v>
+      </c>
+      <c r="E468" t="s">
+        <v>25</v>
+      </c>
+      <c r="F468">
+        <v>701</v>
+      </c>
+      <c r="G468">
+        <v>762.36666666666667</v>
+      </c>
+      <c r="H468">
+        <v>0</v>
+      </c>
+      <c r="I468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>407</v>
+      </c>
+      <c r="B469" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C469" t="s">
+        <v>21</v>
+      </c>
+      <c r="D469" t="s">
+        <v>10</v>
+      </c>
+      <c r="E469" t="s">
+        <v>26</v>
+      </c>
+      <c r="F469">
+        <v>115</v>
+      </c>
+      <c r="G469">
+        <v>656.54166666666652</v>
+      </c>
+      <c r="H469">
+        <v>0</v>
+      </c>
+      <c r="I469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>407</v>
+      </c>
+      <c r="B470" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C470" t="s">
+        <v>21</v>
+      </c>
+      <c r="D470" t="s">
+        <v>11</v>
+      </c>
+      <c r="E470" t="s">
+        <v>24</v>
+      </c>
+      <c r="F470">
+        <v>841.80000000000007</v>
+      </c>
+      <c r="G470">
+        <v>1038.3333333333333</v>
+      </c>
+      <c r="H470">
+        <v>694.62777777777785</v>
+      </c>
+      <c r="I470">
+        <v>610.23333333333335</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>407</v>
+      </c>
+      <c r="B471" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="C471" t="s">
+        <v>21</v>
+      </c>
+      <c r="D471" t="s">
+        <v>11</v>
+      </c>
+      <c r="E471" t="s">
+        <v>25</v>
+      </c>
+      <c r="F471">
+        <v>417.40000000000003</v>
+      </c>
+      <c r="G471">
+        <v>421.85416666666657</v>
+      </c>
+      <c r="H471">
+        <v>0</v>
+      </c>
+      <c r="I471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>407</v>
+      </c>
+      <c r="B472" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="C472" t="s">
+        <v>21</v>
+      </c>
+      <c r="D472" t="s">
+        <v>11</v>
+      </c>
+      <c r="E472" t="s">
+        <v>26</v>
+      </c>
+      <c r="F472">
+        <v>595.6</v>
+      </c>
+      <c r="G472">
+        <v>1012.375</v>
+      </c>
+      <c r="H472">
+        <v>0</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>407</v>
+      </c>
+      <c r="B473" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="C473" t="s">
+        <v>21</v>
+      </c>
+      <c r="D473" t="s">
+        <v>12</v>
+      </c>
+      <c r="E473" t="s">
+        <v>24</v>
+      </c>
+      <c r="F473">
+        <v>643.70000000000005</v>
+      </c>
+      <c r="G473">
+        <v>1514.825</v>
+      </c>
+      <c r="H473">
+        <v>248.75833333333333</v>
+      </c>
+      <c r="I473">
+        <v>361.43333333333339</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>407</v>
+      </c>
+      <c r="B474" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C474" t="s">
+        <v>21</v>
+      </c>
+      <c r="D474" t="s">
+        <v>12</v>
+      </c>
+      <c r="E474" t="s">
+        <v>25</v>
+      </c>
+      <c r="F474">
+        <v>175.2</v>
+      </c>
+      <c r="G474">
+        <v>525.29999999999995</v>
+      </c>
+      <c r="H474">
+        <v>0</v>
+      </c>
+      <c r="I474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>407</v>
+      </c>
+      <c r="B475" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C475" t="s">
+        <v>21</v>
+      </c>
+      <c r="D475" t="s">
+        <v>12</v>
+      </c>
+      <c r="E475" t="s">
+        <v>26</v>
+      </c>
+      <c r="F475">
+        <v>245.2</v>
+      </c>
+      <c r="G475">
+        <v>506.68333333333334</v>
+      </c>
+      <c r="H475">
+        <v>0</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>407</v>
+      </c>
+      <c r="B476" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C476" t="s">
+        <v>21</v>
+      </c>
+      <c r="D476" t="s">
+        <v>219</v>
+      </c>
+      <c r="E476" t="s">
+        <v>24</v>
+      </c>
+      <c r="F476">
+        <v>58.300000000000004</v>
+      </c>
+      <c r="G476">
+        <v>178.44166666666669</v>
+      </c>
+      <c r="H476">
+        <v>77.727777777777774</v>
+      </c>
+      <c r="I476">
+        <v>108.55555555555556</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>407</v>
+      </c>
+      <c r="B477" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C477" t="s">
+        <v>21</v>
+      </c>
+      <c r="D477" t="s">
+        <v>219</v>
+      </c>
+      <c r="E477" t="s">
+        <v>25</v>
+      </c>
+      <c r="F477">
+        <v>37</v>
+      </c>
+      <c r="G477">
+        <v>224.36249999999998</v>
+      </c>
+      <c r="H477">
+        <v>0</v>
+      </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>407</v>
+      </c>
+      <c r="B478" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C478" t="s">
+        <v>21</v>
+      </c>
+      <c r="D478" t="s">
+        <v>219</v>
+      </c>
+      <c r="E478" t="s">
+        <v>26</v>
+      </c>
+      <c r="F478">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="G478">
+        <v>205.54583333333335</v>
+      </c>
+      <c r="H478">
+        <v>0</v>
+      </c>
+      <c r="I478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>407</v>
+      </c>
+      <c r="B479" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="C479" t="s">
+        <v>22</v>
+      </c>
+      <c r="D479" t="s">
+        <v>13</v>
+      </c>
+      <c r="E479" t="s">
+        <v>24</v>
+      </c>
+      <c r="F479">
+        <v>1330.3</v>
+      </c>
+      <c r="G479">
+        <v>3126.9416666666662</v>
+      </c>
+      <c r="H479">
+        <v>2386.8611111111113</v>
+      </c>
+      <c r="I479">
+        <v>1247.586111111111</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>407</v>
+      </c>
+      <c r="B480" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="C480" t="s">
+        <v>22</v>
+      </c>
+      <c r="D480" t="s">
+        <v>13</v>
+      </c>
+      <c r="E480" t="s">
+        <v>25</v>
+      </c>
+      <c r="F480">
+        <v>864.3</v>
+      </c>
+      <c r="G480">
+        <v>1146.4083333333331</v>
+      </c>
+      <c r="H480">
+        <v>0</v>
+      </c>
+      <c r="I480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>407</v>
+      </c>
+      <c r="B481" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="C481" t="s">
+        <v>22</v>
+      </c>
+      <c r="D481" t="s">
+        <v>13</v>
+      </c>
+      <c r="E481" t="s">
+        <v>26</v>
+      </c>
+      <c r="F481">
+        <v>4921.5</v>
+      </c>
+      <c r="G481">
+        <v>3781.2333333333336</v>
+      </c>
+      <c r="H481">
+        <v>0</v>
+      </c>
+      <c r="I481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>407</v>
+      </c>
+      <c r="B482" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C482" t="s">
+        <v>22</v>
+      </c>
+      <c r="D482" t="s">
+        <v>14</v>
+      </c>
+      <c r="E482" t="s">
+        <v>24</v>
+      </c>
+      <c r="F482">
+        <v>1841.3999999999999</v>
+      </c>
+      <c r="G482">
+        <v>1651.8375000000003</v>
+      </c>
+      <c r="H482">
+        <v>3832.7527777777777</v>
+      </c>
+      <c r="I482">
+        <v>1508.9611111111114</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>407</v>
+      </c>
+      <c r="B483" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C483" t="s">
+        <v>22</v>
+      </c>
+      <c r="D483" t="s">
+        <v>14</v>
+      </c>
+      <c r="E483" t="s">
+        <v>25</v>
+      </c>
+      <c r="F483">
+        <v>1269.2</v>
+      </c>
+      <c r="G483">
+        <v>1393.9083333333335</v>
+      </c>
+      <c r="H483">
+        <v>0</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>407</v>
+      </c>
+      <c r="B484" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C484" t="s">
+        <v>22</v>
+      </c>
+      <c r="D484" t="s">
+        <v>14</v>
+      </c>
+      <c r="E484" t="s">
+        <v>26</v>
+      </c>
+      <c r="F484">
+        <v>1083.8999999999999</v>
+      </c>
+      <c r="G484">
+        <v>613.06666666666661</v>
+      </c>
+      <c r="H484">
+        <v>0</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>407</v>
+      </c>
+      <c r="B485" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C485" t="s">
+        <v>22</v>
+      </c>
+      <c r="D485" t="s">
+        <v>15</v>
+      </c>
+      <c r="E485" t="s">
+        <v>24</v>
+      </c>
+      <c r="F485">
+        <v>2309.4</v>
+      </c>
+      <c r="G485">
+        <v>4366.9250000000002</v>
+      </c>
+      <c r="H485">
+        <v>1763.9749999999997</v>
+      </c>
+      <c r="I485">
+        <v>1099.2055555555555</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>407</v>
+      </c>
+      <c r="B486" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C486" t="s">
+        <v>22</v>
+      </c>
+      <c r="D486" t="s">
+        <v>15</v>
+      </c>
+      <c r="E486" t="s">
+        <v>25</v>
+      </c>
+      <c r="F486">
+        <v>3494.4</v>
+      </c>
+      <c r="G486">
+        <v>2377.2208333333342</v>
+      </c>
+      <c r="H486">
+        <v>0</v>
+      </c>
+      <c r="I486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>407</v>
+      </c>
+      <c r="B487" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="C487" t="s">
+        <v>22</v>
+      </c>
+      <c r="D487" t="s">
+        <v>15</v>
+      </c>
+      <c r="E487" t="s">
+        <v>26</v>
+      </c>
+      <c r="F487">
+        <v>1689.6999999999998</v>
+      </c>
+      <c r="G487">
+        <v>1898.3500000000001</v>
+      </c>
+      <c r="H487">
+        <v>0</v>
+      </c>
+      <c r="I487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>407</v>
+      </c>
+      <c r="B488" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F488">
+        <v>12201.4</v>
+      </c>
+      <c r="G488">
+        <v>29220.883333333335</v>
+      </c>
+      <c r="H488">
+        <v>12391.202777777778</v>
+      </c>
+      <c r="I488">
+        <v>6091.1888888888889</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>407</v>
+      </c>
+      <c r="B489" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F489">
+        <v>3973.8</v>
+      </c>
+      <c r="G489">
+        <v>10015.358333333335</v>
+      </c>
+      <c r="H489">
+        <v>0</v>
+      </c>
+      <c r="I489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>407</v>
+      </c>
+      <c r="B490" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F490">
+        <v>3056.2999999999997</v>
+      </c>
+      <c r="G490">
+        <v>3940.8416666666672</v>
+      </c>
+      <c r="H490">
+        <v>0</v>
+      </c>
+      <c r="I490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>407</v>
+      </c>
+      <c r="B491" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C491" t="s">
+        <v>23</v>
+      </c>
+      <c r="D491" t="s">
+        <v>18</v>
+      </c>
+      <c r="E491" t="s">
+        <v>24</v>
+      </c>
+      <c r="F491">
+        <v>2513.4</v>
+      </c>
+      <c r="G491">
+        <v>2629.5166666666669</v>
+      </c>
+      <c r="H491">
+        <v>1047.1194444444443</v>
+      </c>
+      <c r="I491">
+        <v>1340.6138888888888</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>407</v>
+      </c>
+      <c r="B492" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F492">
+        <v>4166.3999999999996</v>
+      </c>
+      <c r="G492">
+        <v>5156.0666666666657</v>
+      </c>
+      <c r="H492">
+        <v>0</v>
+      </c>
+      <c r="I492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>407</v>
+      </c>
+      <c r="B493" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F493">
+        <v>1482.4</v>
+      </c>
+      <c r="G493">
+        <v>1758.6583333333335</v>
+      </c>
+      <c r="H493">
+        <v>0</v>
+      </c>
+      <c r="I493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>407</v>
+      </c>
+      <c r="B494" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C494" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D494" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E494" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="F494">
+        <v>4473.6000000000004</v>
+      </c>
+      <c r="G494">
+        <v>5236.2749999999996</v>
+      </c>
+      <c r="H494">
+        <v>3835.0750000000003</v>
+      </c>
+      <c r="I494">
+        <v>5526.0555555555547</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>407</v>
+      </c>
+      <c r="B495" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="C495" t="s">
+        <v>23</v>
+      </c>
+      <c r="D495" t="s">
+        <v>19</v>
+      </c>
+      <c r="E495" t="s">
+        <v>25</v>
+      </c>
+      <c r="F495">
+        <v>21753</v>
+      </c>
+      <c r="G495">
+        <v>9440.7250000000004</v>
+      </c>
+      <c r="H495">
+        <v>0</v>
+      </c>
+      <c r="I495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>407</v>
+      </c>
+      <c r="B496" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="C496" t="s">
+        <v>23</v>
+      </c>
+      <c r="D496" t="s">
+        <v>19</v>
+      </c>
+      <c r="E496" t="s">
+        <v>26</v>
+      </c>
+      <c r="F496">
+        <v>3997.9</v>
+      </c>
+      <c r="G496">
+        <v>3003.1166666666668</v>
+      </c>
+      <c r="H496">
+        <v>0</v>
+      </c>
+      <c r="I496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>407</v>
+      </c>
+      <c r="B497" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="C497" t="s">
+        <v>217</v>
+      </c>
+      <c r="D497" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="E497" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="F497">
+        <v>3708.1</v>
+      </c>
+      <c r="G497">
+        <v>1485.7708333333333</v>
+      </c>
+      <c r="H497">
+        <v>3753.8888888888891</v>
+      </c>
+      <c r="I497">
+        <v>6660.6833333333343</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>407</v>
+      </c>
+      <c r="B498" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C498" t="s">
+        <v>217</v>
+      </c>
+      <c r="D498" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="E498" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F498">
+        <v>10905.1</v>
+      </c>
+      <c r="G498">
+        <v>4184.8270833333327</v>
+      </c>
+      <c r="H498">
+        <v>0</v>
+      </c>
+      <c r="I498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>407</v>
+      </c>
+      <c r="B499" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="C499" t="s">
+        <v>217</v>
+      </c>
+      <c r="D499" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="E499" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F499">
+        <v>449</v>
+      </c>
+      <c r="G499">
+        <v>795.17083333333323</v>
+      </c>
+      <c r="H499">
+        <v>0</v>
+      </c>
+      <c r="I499">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17768,8 +20149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F060190A-1726-4E55-AD20-1AB943A96AAA}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection sqref="A1:G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18719,6 +21100,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K43" xr:uid="{F060190A-1726-4E55-AD20-1AB943A96AAA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18728,7 +21110,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19669,6 +22051,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G43" xr:uid="{2C5619D2-6513-458E-9E40-210698308BF1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19678,7 +22061,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20608,6 +22991,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G43" xr:uid="{1E37621D-3A12-4468-9315-EFE5538C895B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20617,7 +23001,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21557,6 +23941,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H43" xr:uid="{EC761EDA-9E35-47ED-8663-9EADD6B5DF1B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21565,8 +23950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CFBC84-945F-4464-9931-40C3E8300750}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22507,6 +24892,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G43" xr:uid="{08CFBC84-945F-4464-9931-40C3E8300750}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22516,7 +24902,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23609,6 +25995,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H43" xr:uid="{648A9381-9370-4BCB-9EA8-880531563C1E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24908,7 +27295,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26071,6 +28458,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I42" xr:uid="{F158CD29-099B-43CF-B265-D3A66306176E}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoreo_de_candidatos_largo.xlsx
+++ b/Monitoreo_de_candidatos_largo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://controlriskscan-my.sharepoint.com/personal/angelica_mendez_controlrisks_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2393" documentId="8_{194206F6-F826-48E6-9C50-0079A5A6D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78C78326-264C-4455-93A8-24025D9D4BAE}"/>
+  <xr:revisionPtr revIDLastSave="2394" documentId="8_{194206F6-F826-48E6-9C50-0079A5A6D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{305EA55C-D318-4501-BA21-C88D1BC7EB45}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="12" xr2:uid="{3D252F8C-4335-4931-923B-6975DF4F4743}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="405">
   <si>
     <t>Espectro</t>
   </si>
@@ -1274,15 +1274,6 @@
   </si>
   <si>
     <t>Nov 26 - Dec 3</t>
-  </si>
-  <si>
-    <t>Nov 26 - Dec 8</t>
-  </si>
-  <si>
-    <t>Nov 26 - Dec 9</t>
-  </si>
-  <si>
-    <t>Nov 26 - Dec 10</t>
   </si>
   <si>
     <t>Semana 12</t>
@@ -6161,8 +6152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6FA629-4877-42B1-A680-1262F55C3057}">
   <dimension ref="A1:I499"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L462" sqref="L462"/>
+    <sheetView tabSelected="1" topLeftCell="A480" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B498" sqref="B498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18921,7 +18912,7 @@
     </row>
     <row r="458" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B458" s="75" t="s">
         <v>403</v>
@@ -18950,7 +18941,7 @@
     </row>
     <row r="459" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B459" s="75" t="s">
         <v>403</v>
@@ -18979,7 +18970,7 @@
     </row>
     <row r="460" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B460" s="75" t="s">
         <v>403</v>
@@ -19008,7 +18999,7 @@
     </row>
     <row r="461" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B461" s="75" t="s">
         <v>403</v>
@@ -19037,7 +19028,7 @@
     </row>
     <row r="462" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B462" s="75" t="s">
         <v>403</v>
@@ -19066,10 +19057,10 @@
     </row>
     <row r="463" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B463" s="75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>21</v>
@@ -19095,10 +19086,10 @@
     </row>
     <row r="464" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B464" s="75" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C464" t="s">
         <v>21</v>
@@ -19124,10 +19115,10 @@
     </row>
     <row r="465" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B465" s="75" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C465" t="s">
         <v>21</v>
@@ -19153,7 +19144,7 @@
     </row>
     <row r="466" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B466" s="75" t="s">
         <v>403</v>
@@ -19182,7 +19173,7 @@
     </row>
     <row r="467" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B467" s="75" t="s">
         <v>403</v>
@@ -19211,7 +19202,7 @@
     </row>
     <row r="468" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B468" s="75" t="s">
         <v>403</v>
@@ -19240,7 +19231,7 @@
     </row>
     <row r="469" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B469" s="75" t="s">
         <v>403</v>
@@ -19269,7 +19260,7 @@
     </row>
     <row r="470" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B470" s="75" t="s">
         <v>403</v>
@@ -19298,10 +19289,10 @@
     </row>
     <row r="471" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B471" s="75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C471" t="s">
         <v>21</v>
@@ -19327,10 +19318,10 @@
     </row>
     <row r="472" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B472" s="75" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C472" t="s">
         <v>21</v>
@@ -19356,10 +19347,10 @@
     </row>
     <row r="473" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B473" s="75" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C473" t="s">
         <v>21</v>
@@ -19385,7 +19376,7 @@
     </row>
     <row r="474" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B474" s="75" t="s">
         <v>403</v>
@@ -19414,7 +19405,7 @@
     </row>
     <row r="475" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B475" s="75" t="s">
         <v>403</v>
@@ -19443,7 +19434,7 @@
     </row>
     <row r="476" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B476" s="75" t="s">
         <v>403</v>
@@ -19472,7 +19463,7 @@
     </row>
     <row r="477" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B477" s="75" t="s">
         <v>403</v>
@@ -19501,7 +19492,7 @@
     </row>
     <row r="478" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B478" s="75" t="s">
         <v>403</v>
@@ -19530,10 +19521,10 @@
     </row>
     <row r="479" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B479" s="75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C479" t="s">
         <v>22</v>
@@ -19559,10 +19550,10 @@
     </row>
     <row r="480" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B480" s="75" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C480" t="s">
         <v>22</v>
@@ -19588,10 +19579,10 @@
     </row>
     <row r="481" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B481" s="75" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C481" t="s">
         <v>22</v>
@@ -19617,7 +19608,7 @@
     </row>
     <row r="482" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B482" s="75" t="s">
         <v>403</v>
@@ -19646,7 +19637,7 @@
     </row>
     <row r="483" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B483" s="75" t="s">
         <v>403</v>
@@ -19675,7 +19666,7 @@
     </row>
     <row r="484" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B484" s="75" t="s">
         <v>403</v>
@@ -19704,7 +19695,7 @@
     </row>
     <row r="485" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B485" s="75" t="s">
         <v>403</v>
@@ -19733,7 +19724,7 @@
     </row>
     <row r="486" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B486" s="75" t="s">
         <v>403</v>
@@ -19762,10 +19753,10 @@
     </row>
     <row r="487" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B487" s="75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C487" t="s">
         <v>22</v>
@@ -19791,10 +19782,10 @@
     </row>
     <row r="488" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B488" s="75" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>22</v>
@@ -19820,10 +19811,10 @@
     </row>
     <row r="489" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B489" s="75" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>22</v>
@@ -19849,7 +19840,7 @@
     </row>
     <row r="490" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B490" s="75" t="s">
         <v>403</v>
@@ -19878,7 +19869,7 @@
     </row>
     <row r="491" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B491" s="75" t="s">
         <v>403</v>
@@ -19907,7 +19898,7 @@
     </row>
     <row r="492" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B492" s="75" t="s">
         <v>403</v>
@@ -19936,7 +19927,7 @@
     </row>
     <row r="493" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B493" s="75" t="s">
         <v>403</v>
@@ -19965,7 +19956,7 @@
     </row>
     <row r="494" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B494" s="75" t="s">
         <v>403</v>
@@ -19994,10 +19985,10 @@
     </row>
     <row r="495" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B495" s="75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C495" t="s">
         <v>23</v>
@@ -20023,10 +20014,10 @@
     </row>
     <row r="496" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B496" s="75" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C496" t="s">
         <v>23</v>
@@ -20052,10 +20043,10 @@
     </row>
     <row r="497" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B497" s="75" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C497" t="s">
         <v>217</v>
@@ -20081,7 +20072,7 @@
     </row>
     <row r="498" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B498" s="75" t="s">
         <v>403</v>
@@ -20110,7 +20101,7 @@
     </row>
     <row r="499" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B499" s="75" t="s">
         <v>403</v>
